--- a/programowanie-genetyczne-lab1/target/classes/GP-plots.xlsx
+++ b/programowanie-genetyczne-lab1/target/classes/GP-plots.xlsx
@@ -95,1219 +95,1906 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'GP plots'!$A$1:$A$201</c:f>
+              <c:f>'GP plots'!$A$1:$A$315</c:f>
               <c:numCache>
-                <c:ptCount val="201"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
-                  <c:v>-10.0</c:v>
+                  <c:v>-1.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.9</c:v>
+                  <c:v>-1.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.8</c:v>
+                  <c:v>-1.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.7</c:v>
+                  <c:v>-1.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.6</c:v>
+                  <c:v>-1.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.5</c:v>
+                  <c:v>-1.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.4</c:v>
+                  <c:v>-1.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.3</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.2</c:v>
+                  <c:v>-1.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.1</c:v>
+                  <c:v>-1.48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.0</c:v>
+                  <c:v>-1.47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.9</c:v>
+                  <c:v>-1.46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8.8</c:v>
+                  <c:v>-1.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-8.7</c:v>
+                  <c:v>-1.44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-8.6</c:v>
+                  <c:v>-1.43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-8.5</c:v>
+                  <c:v>-1.42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-8.4</c:v>
+                  <c:v>-1.41</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8.3</c:v>
+                  <c:v>-1.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8.2</c:v>
+                  <c:v>-1.39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8.1</c:v>
+                  <c:v>-1.38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8.0</c:v>
+                  <c:v>-1.37</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-7.9</c:v>
+                  <c:v>-1.36</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7.8</c:v>
+                  <c:v>-1.35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7.7</c:v>
+                  <c:v>-1.34</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7.6</c:v>
+                  <c:v>-1.33</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7.5</c:v>
+                  <c:v>-1.32</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-7.4</c:v>
+                  <c:v>-1.31</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-7.3</c:v>
+                  <c:v>-1.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-7.2</c:v>
+                  <c:v>-1.29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-7.1</c:v>
+                  <c:v>-1.28</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-7.0</c:v>
+                  <c:v>-1.27</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-6.9</c:v>
+                  <c:v>-1.26</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-6.8</c:v>
+                  <c:v>-1.25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-6.7</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6.6</c:v>
+                  <c:v>-1.23</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-6.5</c:v>
+                  <c:v>-1.22</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6.4</c:v>
+                  <c:v>-1.21</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-6.3</c:v>
+                  <c:v>-1.2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-6.2</c:v>
+                  <c:v>-1.19</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-6.1</c:v>
+                  <c:v>-1.18</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-6.0</c:v>
+                  <c:v>-1.17</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-5.9</c:v>
+                  <c:v>-1.16</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-5.8</c:v>
+                  <c:v>-1.15</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-5.7</c:v>
+                  <c:v>-1.14</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-5.6</c:v>
+                  <c:v>-1.13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-5.5</c:v>
+                  <c:v>-1.12</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-5.4</c:v>
+                  <c:v>-1.11</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-5.3</c:v>
+                  <c:v>-1.1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-5.2</c:v>
+                  <c:v>-1.09</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-5.1</c:v>
+                  <c:v>-1.08</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-5.0</c:v>
+                  <c:v>-1.07</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-4.9</c:v>
+                  <c:v>-1.06</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-4.8</c:v>
+                  <c:v>-1.05</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-4.7</c:v>
+                  <c:v>-1.04</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-4.6</c:v>
+                  <c:v>-1.03</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4.5</c:v>
+                  <c:v>-1.02</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-4.4</c:v>
+                  <c:v>-1.01</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-4.3</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-4.2</c:v>
+                  <c:v>-0.99</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-4.1</c:v>
+                  <c:v>-0.98</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-4.0</c:v>
+                  <c:v>-0.97</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3.9</c:v>
+                  <c:v>-0.96</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.8</c:v>
+                  <c:v>-0.95</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-3.7</c:v>
+                  <c:v>-0.94</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-3.6</c:v>
+                  <c:v>-0.93</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-3.5</c:v>
+                  <c:v>-0.92</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-3.4</c:v>
+                  <c:v>-0.91</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-3.3</c:v>
+                  <c:v>-0.9</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-3.2</c:v>
+                  <c:v>-0.89</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-3.1</c:v>
+                  <c:v>-0.88</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-3.0</c:v>
+                  <c:v>-0.87</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-2.9</c:v>
+                  <c:v>-0.86</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-2.8</c:v>
+                  <c:v>-0.85</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.7</c:v>
+                  <c:v>-0.84</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.6</c:v>
+                  <c:v>-0.83</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.5</c:v>
+                  <c:v>-0.82</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.4</c:v>
+                  <c:v>-0.81</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-2.3</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-2.2</c:v>
+                  <c:v>-0.79</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-2.1</c:v>
+                  <c:v>-0.78</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.0</c:v>
+                  <c:v>-0.77</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.9</c:v>
+                  <c:v>-0.76</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.8</c:v>
+                  <c:v>-0.75</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.7</c:v>
+                  <c:v>-0.74</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-1.6</c:v>
+                  <c:v>-0.73</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.5</c:v>
+                  <c:v>-0.72</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.4</c:v>
+                  <c:v>-0.71</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.3</c:v>
+                  <c:v>-0.7</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.2</c:v>
+                  <c:v>-0.69</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.1</c:v>
+                  <c:v>-0.68</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.0</c:v>
+                  <c:v>-0.67</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.9</c:v>
+                  <c:v>-0.66</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.8</c:v>
+                  <c:v>-0.65</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.7</c:v>
+                  <c:v>-0.64</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>-0.6</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="98">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.58</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.57</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.56</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.55</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.54</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.53</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="107">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="108">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.42</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>-0.4</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="118">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.37</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.31</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>-0.3</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="128">
+                  <c:v>-0.29</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.28</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>-0.2</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="138">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.14</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="147">
                   <c:v>-0.1</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="148">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.07</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="158">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="167">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="168">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="177">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="178">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="187">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="188">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="197">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="198">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="207">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="208">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="217">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="218">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="227">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="228">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="237">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="238">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="247">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="248">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="257">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="258">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.09</c:v>
+                </c:pt>
+                <c:pt idx="267">
                   <c:v>1.1</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="268">
+                  <c:v>1.11</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.12</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.13</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.14</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.15</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.16</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="277">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="278">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="287">
                   <c:v>1.3</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="288">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="297">
                   <c:v>1.4</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="298">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="307">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2.2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2.3</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>4.1</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>4.4</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>4.6</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>4.9</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>5.1</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>8.2</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>8.3</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>8.7</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>8.8</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>9.2</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>9.3</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>9.7</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>9.8</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>10.0</c:v>
+                <c:pt idx="308">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'GP plots'!$B$1:$B$201</c:f>
+              <c:f>'GP plots'!$B$1:$B$315</c:f>
               <c:numCache>
-                <c:ptCount val="201"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
-                  <c:v>-5247.0</c:v>
+                  <c:v>0.5707965516046575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5094.215</c:v>
+                  <c:v>0.5708545143065258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4944.44</c:v>
+                  <c:v>0.5710124703471351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4797.6449999999995</c:v>
+                  <c:v>0.571270403931013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4653.8</c:v>
+                  <c:v>0.5716282892650161</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4512.875</c:v>
+                  <c:v>0.5720860905609091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4374.84</c:v>
+                  <c:v>0.572643762038944</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4239.665</c:v>
+                  <c:v>0.5733012479324376</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4107.320000000001</c:v>
+                  <c:v>0.5740584824933487</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3977.775</c:v>
+                  <c:v>0.5749153899988521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3851.0</c:v>
+                  <c:v>0.5758718847589112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3726.9649999999997</c:v>
+                  <c:v>0.5769278711248472</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3605.6400000000003</c:v>
+                  <c:v>0.5780832434989036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3486.995</c:v>
+                  <c:v>0.5793378863448057</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3371.0</c:v>
+                  <c:v>0.5806916741993143</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3257.625</c:v>
+                  <c:v>0.5821444716847723</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3146.84</c:v>
+                  <c:v>0.5836961335226417</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3038.6150000000002</c:v>
+                  <c:v>0.5853465045480319</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2932.9199999999996</c:v>
+                  <c:v>0.5870954197252155</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2829.7249999999995</c:v>
+                  <c:v>0.5889427041641324</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2729.0</c:v>
+                  <c:v>0.5908881731378779</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2630.715</c:v>
+                  <c:v>0.5929316321011758</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2534.84</c:v>
+                  <c:v>0.595072876709833</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2441.345</c:v>
+                  <c:v>0.5973116928411727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2350.2000000000003</c:v>
+                  <c:v>0.5996478566154475</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2261.375</c:v>
+                  <c:v>0.6020811344182269</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2174.84</c:v>
+                  <c:v>0.6046112829237581</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2090.565</c:v>
+                  <c:v>0.6072380491192991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2008.52</c:v>
+                  <c:v>0.6099611703304194</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1928.6750000000002</c:v>
+                  <c:v>0.6127803742472672</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1851.0000000000002</c:v>
+                  <c:v>0.6156953789517998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1775.4650000000001</c:v>
+                  <c:v>0.6187058929459763</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1702.0400000000002</c:v>
+                  <c:v>0.6218116151809059</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1630.695</c:v>
+                  <c:v>0.6250122350869531</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1561.3999999999999</c:v>
+                  <c:v>0.6283074326047946</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1494.125</c:v>
+                  <c:v>0.6316968782174245</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1428.8400000000001</c:v>
+                  <c:v>0.6351802329831062</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1365.5149999999999</c:v>
+                  <c:v>0.6387571485692658</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1304.1200000000003</c:v>
+                  <c:v>0.6424272672873255</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1244.6249999999995</c:v>
+                  <c:v>0.6461902221284718</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1187.0</c:v>
+                  <c:v>0.6500456368003564</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1131.215</c:v>
+                  <c:v>0.6539931257647252</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1077.24</c:v>
+                  <c:v>0.6580322942759711</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1025.045</c:v>
+                  <c:v>0.6621627384206089</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-974.5999999999999</c:v>
+                  <c:v>0.6663840451576662</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-925.875</c:v>
+                  <c:v>0.670695792359987</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-878.8399999999999</c:v>
+                  <c:v>0.6750975488564445</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-833.465</c:v>
+                  <c:v>0.6795888744750567</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-789.72</c:v>
+                  <c:v>0.6841693200870048</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-747.575</c:v>
+                  <c:v>0.6888384276515446</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-706.9999999999998</c:v>
+                  <c:v>0.6935957302618104</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-667.965</c:v>
+                  <c:v>0.6984407521915058</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-630.44</c:v>
+                  <c:v>0.7033730089424751</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-594.395</c:v>
+                  <c:v>0.7083920072931537</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-559.8000000000001</c:v>
+                  <c:v>0.7134972453478887</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-526.625</c:v>
+                  <c:v>0.7186882125871291</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-494.84</c:v>
+                  <c:v>0.7239643899184769</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-464.41499999999996</c:v>
+                  <c:v>0.7293252497285956</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-435.32</c:v>
+                  <c:v>0.7347702559359716</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-407.525</c:v>
+                  <c:v>0.7402988640445216</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-381.0</c:v>
+                  <c:v>0.745910521198042</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-355.71500000000003</c:v>
+                  <c:v>0.7516046662354938</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-331.64</c:v>
+                  <c:v>0.7573807297471183</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-308.745</c:v>
+                  <c:v>0.7632381341313779</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-287.0</c:v>
+                  <c:v>0.7691762936527149</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-266.375</c:v>
+                  <c:v>0.7751946145001261</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-246.84</c:v>
+                  <c:v>0.7812924948465416</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-228.365</c:v>
+                  <c:v>0.7874693249090087</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-210.92</c:v>
+                  <c:v>0.7937244870096682</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-194.475</c:v>
+                  <c:v>0.8000573556375228</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-179.0</c:v>
+                  <c:v>0.806467297510987</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-164.465</c:v>
+                  <c:v>0.8129536716412151</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-150.83999999999997</c:v>
+                  <c:v>0.8195158293961994</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-138.095</c:v>
+                  <c:v>0.8261531145656328</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-126.19999999999999</c:v>
+                  <c:v>0.8328648634265294</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-115.125</c:v>
+                  <c:v>0.8396504048095963</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-104.84</c:v>
+                  <c:v>0.8465090601663495</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-95.315</c:v>
+                  <c:v>0.8534401436369693</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-86.52000000000001</c:v>
+                  <c:v>0.8604429621188843</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-78.425</c:v>
+                  <c:v>0.8675168153360819</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-71.0</c:v>
+                  <c:v>0.8746609959091354</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-64.215</c:v>
+                  <c:v>0.8818747894259408</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-58.04</c:v>
+                  <c:v>0.889157474513158</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-52.44499999999999</c:v>
+                  <c:v>0.896508322908347</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-47.4</c:v>
+                  <c:v>0.9039265995327942</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-42.875</c:v>
+                  <c:v>0.911411562565019</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-38.83999999999998</c:v>
+                  <c:v>0.9189624635149555</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-35.265</c:v>
+                  <c:v>0.9265785472988011</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-32.119999999999976</c:v>
+                  <c:v>0.9342590523145242</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-29.37499999999998</c:v>
+                  <c:v>0.9420032105180235</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-27.0</c:v>
+                  <c:v>0.9498102474999324</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-24.96499999999998</c:v>
+                  <c:v>0.9576793825630583</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-23.23999999999998</c:v>
+                  <c:v>0.9656098288004525</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-21.795</c:v>
+                  <c:v>0.9736007931741</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-20.59999999999998</c:v>
+                  <c:v>0.9816514765942226</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-19.625</c:v>
+                  <c:v>0.989761073999187</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-18.84</c:v>
+                  <c:v>0.9979287744360108</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-18.215</c:v>
+                  <c:v>1.0061537611414568</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-17.72</c:v>
+                  <c:v>1.0144352116237083</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-17.325</c:v>
+                  <c:v>1.0227722977446185</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.031164185802523</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-16.715</c:v>
+                  <c:v>1.0396100366156087</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-16.44</c:v>
+                  <c:v>1.0481090056058329</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-16.145</c:v>
+                  <c:v>1.056660242883379</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-15.8</c:v>
+                  <c:v>1.0652628933316453</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-15.375</c:v>
+                  <c:v>1.0739160966927552</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-14.84</c:v>
+                  <c:v>1.0826189876535846</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-14.165</c:v>
+                  <c:v>1.091370695932289</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-13.319999999999979</c:v>
+                  <c:v>1.100170346365334</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-12.275</c:v>
+                  <c:v>1.1090170589950092</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-11.0</c:v>
+                  <c:v>1.1179099491574238</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-9.465</c:v>
+                  <c:v>1.1268481275709723</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-7.640000000000001</c:v>
+                  <c:v>1.135830700425262</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-5.4950000000000205</c:v>
+                  <c:v>1.1448567694704925</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-2.99999999999998</c:v>
+                  <c:v>1.1539254321072814</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.12499999999998046</c:v>
+                  <c:v>1.1630357814769219</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.1599999999999806</c:v>
+                  <c:v>1.1721869065520691</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6.885</c:v>
+                  <c:v>1.1813778922278415</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>11.079999999999998</c:v>
+                  <c:v>1.1906078194133307</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>15.774999999999999</c:v>
+                  <c:v>1.1998757651235095</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>21.0</c:v>
+                  <c:v>1.20918080257153</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>26.785000000000004</c:v>
+                  <c:v>1.2185220012614022</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>33.16</c:v>
+                  <c:v>1.2278984270810407</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>40.155</c:v>
+                  <c:v>1.2373091423956777</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>47.8</c:v>
+                  <c:v>1.2467532061416238</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>56.125</c:v>
+                  <c:v>1.2562296739203744</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>65.16</c:v>
+                  <c:v>1.2657375980930485</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>74.935</c:v>
+                  <c:v>1.2752760278751525</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>85.47999999999999</c:v>
+                  <c:v>1.2848440094316564</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>96.825</c:v>
+                  <c:v>1.2944405859723784</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>109.0000000000002</c:v>
+                  <c:v>1.304064797847661</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>122.03500000000001</c:v>
+                  <c:v>1.313715682644337</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>135.96</c:v>
+                  <c:v>1.3233922752819691</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>150.805</c:v>
+                  <c:v>1.3330936081093574</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>166.6</c:v>
+                  <c:v>1.3428187110013037</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>183.375</c:v>
+                  <c:v>1.3525666114556227</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>201.16</c:v>
+                  <c:v>1.3623363346903925</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>219.985</c:v>
+                  <c:v>1.3721269037414308</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>239.88</c:v>
+                  <c:v>1.3819373395599914</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>260.875</c:v>
+                  <c:v>1.391766661110668</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>283.0</c:v>
+                  <c:v>1.4016138854694962</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>306.28500000000037</c:v>
+                  <c:v>1.411478027922246</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>330.7599999999998</c:v>
+                  <c:v>1.421358102062893</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>356.455</c:v>
+                  <c:v>1.4312531198922556</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>383.4</c:v>
+                  <c:v>1.4411620919167971</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>411.625</c:v>
+                  <c:v>1.4510840272475727</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>441.15999999999997</c:v>
+                  <c:v>1.4610179336993174</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>472.035</c:v>
+                  <c:v>1.4709628178896639</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>504.2799999999998</c:v>
+                  <c:v>1.480917685338481</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>537.925</c:v>
+                  <c:v>1.4908815405673195</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>572.9999999999998</c:v>
+                  <c:v>1.5008533871989593</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>609.5349999999999</c:v>
+                  <c:v>1.5108322280570474</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>647.56</c:v>
+                  <c:v>1.5208170652658137</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>687.1050000000002</c:v>
+                  <c:v>1.530806900349858</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>728.1999999999999</c:v>
+                  <c:v>1.5408007343339964</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>770.875</c:v>
+                  <c:v>1.550797567843159</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>815.16</c:v>
+                  <c:v>1.5607964012023254</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>861.0849999999999</c:v>
+                  <c:v>1.570796234536492</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>908.6800000000001</c:v>
+                  <c:v>1.5807960678706587</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>957.9749999999996</c:v>
+                  <c:v>1.5907949012298253</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1009.0000000000002</c:v>
+                  <c:v>1.600791734738988</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1061.7850000000005</c:v>
+                  <c:v>1.6107855687231263</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1116.3600000000006</c:v>
+                  <c:v>1.6207754038071704</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1172.7549999999999</c:v>
+                  <c:v>1.630760241015937</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1231.0</c:v>
+                  <c:v>1.6407390818740248</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1291.125</c:v>
+                  <c:v>1.650710928505665</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1353.16</c:v>
+                  <c:v>1.6606747837345033</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1417.135</c:v>
+                  <c:v>1.6706296511833205</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1483.0800000000002</c:v>
+                  <c:v>1.6805745353736672</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1551.0249999999999</c:v>
+                  <c:v>1.6905084418254117</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1621.0</c:v>
+                  <c:v>1.700430377156187</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1693.035</c:v>
+                  <c:v>1.7103393491807286</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1767.16</c:v>
+                  <c:v>1.7202343670100912</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1843.405</c:v>
+                  <c:v>1.730114441150738</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1921.8000000000002</c:v>
+                  <c:v>1.739978583603488</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2002.375</c:v>
+                  <c:v>1.7498258079623166</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2085.16</c:v>
+                  <c:v>1.7596551295129927</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2170.185</c:v>
+                  <c:v>1.7694655653315534</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2257.48</c:v>
+                  <c:v>1.779256134382592</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2347.0750000000003</c:v>
+                  <c:v>1.7890258576173617</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2439.0</c:v>
+                  <c:v>1.7987737580716807</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2533.285</c:v>
+                  <c:v>1.8084988609636268</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2629.96</c:v>
+                  <c:v>1.8182001937910153</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2729.055</c:v>
+                  <c:v>1.8278767864286474</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2830.6</c:v>
+                  <c:v>1.8375276712253235</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2934.625</c:v>
+                  <c:v>1.8471518831006057</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3041.1600000000003</c:v>
+                  <c:v>1.8567484596413277</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3150.2349999999997</c:v>
+                  <c:v>1.866316441197832</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3261.88</c:v>
+                  <c:v>1.8758548709799356</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3376.125</c:v>
+                  <c:v>1.8853627951526097</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3493.0</c:v>
+                  <c:v>1.8948392629313604</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3612.535</c:v>
+                  <c:v>1.9042833266773065</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3734.7599999999998</c:v>
+                  <c:v>1.9136940419919437</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3859.705000000002</c:v>
+                  <c:v>1.923070467811582</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3987.4</c:v>
+                  <c:v>1.9324116665014541</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4117.875</c:v>
+                  <c:v>1.9417167039494747</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4251.159999999998</c:v>
+                  <c:v>1.9509846496596537</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4387.285</c:v>
+                  <c:v>1.9602145768451429</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4526.28</c:v>
+                  <c:v>1.9694055625209153</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4668.175</c:v>
+                  <c:v>1.9785566875960625</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>4813.0</c:v>
+                  <c:v>1.987667036965703</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.9967356996024916</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.0057617686477225</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2.014744341502012</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.0236825199155604</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2.032575410077975</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.04142212270765</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2.050221773140695</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.0589734814194</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2.067676372380229</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2.076329575741339</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.0849322261896055</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.0934834634671513</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.1019824324573757</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.1104282832704615</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.1188201713283656</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.127157257449276</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2.1354387079315273</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.1436636946369734</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.1518313950737973</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.1599409924787616</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2.167991675898884</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.1759826402725317</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.183913086509926</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.191782221573052</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.1995892585549606</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.20733341675846</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.215013921774183</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.222630005558029</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.2301809065079654</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.23766586954019</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.245084146164637</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.252434994559826</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2.2597176796470433</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2.266931473163849</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2.2740756537369022</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.2811495069541</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.2881523254360148</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.2950834089066348</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.301942064263388</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.308727605646455</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.3154393545073515</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.322076639676785</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.3286387974317693</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.335125171561997</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.3415351134354614</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.347867982063316</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.3541231441639754</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.3602999742264426</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.3663978545728583</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.3724161754202693</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2.3783543349416063</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2.384211739325866</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.3899878028374903</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.3956819478749423</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.401293605028463</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.4068222131370125</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2.412267219344389</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.4176280791545075</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.422904256485855</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2.4280952237250957</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2.4332004617798306</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.438219460130509</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.4431517168814785</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2.447996738811174</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2.4527540414214397</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2.4574231489859795</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2.4620035945979275</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2.46649492021654</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2.4708966767129974</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.475208423915318</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2.479429730652375</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2.483560174797013</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2.487599343308259</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2.4915468322726277</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2.4954022469445123</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.499165201785659</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.5028353205037184</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.506412236089878</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2.50989559085556</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2.5132850364681896</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2.516580233986031</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2.5197808538920783</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2.522886576127008</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2.5258970901211844</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2.528812094825717</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2.531631298742565</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2.534354419953685</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2.536981186149226</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2.5395113346547573</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2.5419446124575367</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2.5442807762318114</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2.5465195923631514</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2.5486608369718082</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2.5507042959351063</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2.5526497649088515</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2.5544970493477686</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2.556245964524952</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2.5578963355503426</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2.5594479973882116</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2.5609007948736697</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2.5622545827281784</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2.5635092255740806</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2.564664597948137</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2.565720584314073</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2.566677079074132</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2.5675339865796354</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2.5682912211405466</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2.56894870703404</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2.569506378512075</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2.569964179807968</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2.570322065141971</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2.570579998725849</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2.570737954766458</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2.5707959174683266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,1222 +2009,1906 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'GP plots'!$A$1:$A$201</c:f>
+              <c:f>'GP plots'!$A$1:$A$315</c:f>
               <c:numCache>
-                <c:ptCount val="201"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
-                  <c:v>-10.0</c:v>
+                  <c:v>-1.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.9</c:v>
+                  <c:v>-1.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.8</c:v>
+                  <c:v>-1.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.7</c:v>
+                  <c:v>-1.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.6</c:v>
+                  <c:v>-1.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.5</c:v>
+                  <c:v>-1.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.4</c:v>
+                  <c:v>-1.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.3</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.2</c:v>
+                  <c:v>-1.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.1</c:v>
+                  <c:v>-1.48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.0</c:v>
+                  <c:v>-1.47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.9</c:v>
+                  <c:v>-1.46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8.8</c:v>
+                  <c:v>-1.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-8.7</c:v>
+                  <c:v>-1.44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-8.6</c:v>
+                  <c:v>-1.43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-8.5</c:v>
+                  <c:v>-1.42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-8.4</c:v>
+                  <c:v>-1.41</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8.3</c:v>
+                  <c:v>-1.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8.2</c:v>
+                  <c:v>-1.39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8.1</c:v>
+                  <c:v>-1.38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8.0</c:v>
+                  <c:v>-1.37</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-7.9</c:v>
+                  <c:v>-1.36</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7.8</c:v>
+                  <c:v>-1.35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7.7</c:v>
+                  <c:v>-1.34</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7.6</c:v>
+                  <c:v>-1.33</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7.5</c:v>
+                  <c:v>-1.32</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-7.4</c:v>
+                  <c:v>-1.31</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-7.3</c:v>
+                  <c:v>-1.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-7.2</c:v>
+                  <c:v>-1.29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-7.1</c:v>
+                  <c:v>-1.28</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-7.0</c:v>
+                  <c:v>-1.27</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-6.9</c:v>
+                  <c:v>-1.26</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-6.8</c:v>
+                  <c:v>-1.25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-6.7</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6.6</c:v>
+                  <c:v>-1.23</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-6.5</c:v>
+                  <c:v>-1.22</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6.4</c:v>
+                  <c:v>-1.21</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-6.3</c:v>
+                  <c:v>-1.2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-6.2</c:v>
+                  <c:v>-1.19</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-6.1</c:v>
+                  <c:v>-1.18</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-6.0</c:v>
+                  <c:v>-1.17</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-5.9</c:v>
+                  <c:v>-1.16</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-5.8</c:v>
+                  <c:v>-1.15</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-5.7</c:v>
+                  <c:v>-1.14</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-5.6</c:v>
+                  <c:v>-1.13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-5.5</c:v>
+                  <c:v>-1.12</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-5.4</c:v>
+                  <c:v>-1.11</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-5.3</c:v>
+                  <c:v>-1.1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-5.2</c:v>
+                  <c:v>-1.09</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-5.1</c:v>
+                  <c:v>-1.08</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-5.0</c:v>
+                  <c:v>-1.07</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-4.9</c:v>
+                  <c:v>-1.06</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-4.8</c:v>
+                  <c:v>-1.05</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-4.7</c:v>
+                  <c:v>-1.04</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-4.6</c:v>
+                  <c:v>-1.03</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4.5</c:v>
+                  <c:v>-1.02</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-4.4</c:v>
+                  <c:v>-1.01</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-4.3</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-4.2</c:v>
+                  <c:v>-0.99</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-4.1</c:v>
+                  <c:v>-0.98</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-4.0</c:v>
+                  <c:v>-0.97</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3.9</c:v>
+                  <c:v>-0.96</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.8</c:v>
+                  <c:v>-0.95</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-3.7</c:v>
+                  <c:v>-0.94</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-3.6</c:v>
+                  <c:v>-0.93</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-3.5</c:v>
+                  <c:v>-0.92</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-3.4</c:v>
+                  <c:v>-0.91</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-3.3</c:v>
+                  <c:v>-0.9</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-3.2</c:v>
+                  <c:v>-0.89</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-3.1</c:v>
+                  <c:v>-0.88</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-3.0</c:v>
+                  <c:v>-0.87</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-2.9</c:v>
+                  <c:v>-0.86</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-2.8</c:v>
+                  <c:v>-0.85</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.7</c:v>
+                  <c:v>-0.84</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.6</c:v>
+                  <c:v>-0.83</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.5</c:v>
+                  <c:v>-0.82</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.4</c:v>
+                  <c:v>-0.81</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-2.3</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-2.2</c:v>
+                  <c:v>-0.79</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-2.1</c:v>
+                  <c:v>-0.78</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.0</c:v>
+                  <c:v>-0.77</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.9</c:v>
+                  <c:v>-0.76</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.8</c:v>
+                  <c:v>-0.75</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.7</c:v>
+                  <c:v>-0.74</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-1.6</c:v>
+                  <c:v>-0.73</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.5</c:v>
+                  <c:v>-0.72</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.4</c:v>
+                  <c:v>-0.71</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.3</c:v>
+                  <c:v>-0.7</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.2</c:v>
+                  <c:v>-0.69</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.1</c:v>
+                  <c:v>-0.68</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.0</c:v>
+                  <c:v>-0.67</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.9</c:v>
+                  <c:v>-0.66</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.8</c:v>
+                  <c:v>-0.65</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.7</c:v>
+                  <c:v>-0.64</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>-0.6</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="98">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.58</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.57</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.56</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.55</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.54</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.53</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="107">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="108">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.42</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>-0.4</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="118">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.37</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.31</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>-0.3</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="128">
+                  <c:v>-0.29</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.28</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>-0.2</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="138">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.14</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="147">
                   <c:v>-0.1</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="148">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.07</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="158">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="167">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="168">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="177">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="178">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="187">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="188">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="197">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="198">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="207">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="208">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="217">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="218">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="227">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="228">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="237">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="238">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="247">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="248">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="257">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="258">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.09</c:v>
+                </c:pt>
+                <c:pt idx="267">
                   <c:v>1.1</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="268">
+                  <c:v>1.11</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.12</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.13</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.14</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.15</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.16</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="277">
                   <c:v>1.2</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="278">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="287">
                   <c:v>1.3</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="288">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="297">
                   <c:v>1.4</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="298">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="307">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2.2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2.3</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>4.1</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>4.4</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>4.6</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>4.9</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>5.1</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>8.2</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>8.3</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>8.7</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>8.8</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>9.2</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>9.3</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>9.7</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>9.8</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>10.0</c:v>
+                <c:pt idx="308">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'GP plots'!$C$1:$C$201</c:f>
+              <c:f>'GP plots'!$C$1:$C$315</c:f>
               <c:numCache>
-                <c:ptCount val="201"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
-                  <c:v>-5247.0</c:v>
+                  <c:v>-1.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5094.215000000001</c:v>
+                  <c:v>-1.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4944.4400000000005</c:v>
+                  <c:v>-1.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4797.6449999999995</c:v>
+                  <c:v>-1.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4653.799999999999</c:v>
+                  <c:v>-1.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4512.875</c:v>
+                  <c:v>-1.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4374.84</c:v>
+                  <c:v>-1.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4239.665000000001</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4107.32</c:v>
+                  <c:v>-1.49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3977.7749999999996</c:v>
+                  <c:v>-1.48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3851.0</c:v>
+                  <c:v>-1.47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3726.965</c:v>
+                  <c:v>-1.46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3605.6400000000012</c:v>
+                  <c:v>-1.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3486.994999999999</c:v>
+                  <c:v>-1.44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3371.0</c:v>
+                  <c:v>-1.43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3257.625</c:v>
+                  <c:v>-1.42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3146.84</c:v>
+                  <c:v>-1.41</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3038.615000000001</c:v>
+                  <c:v>-1.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2932.919999999999</c:v>
+                  <c:v>-1.39</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2829.7249999999995</c:v>
+                  <c:v>-1.38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2729.0</c:v>
+                  <c:v>-1.37</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2630.715</c:v>
+                  <c:v>-1.36</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2534.8399999999997</c:v>
+                  <c:v>-1.35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2441.345</c:v>
+                  <c:v>-1.34</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2350.2</c:v>
+                  <c:v>-1.33</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2261.375</c:v>
+                  <c:v>-1.32</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2174.84</c:v>
+                  <c:v>-1.31</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2090.565</c:v>
+                  <c:v>-1.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2008.5200000000002</c:v>
+                  <c:v>-1.29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1928.6749999999997</c:v>
+                  <c:v>-1.28</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1851.0</c:v>
+                  <c:v>-1.27</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1775.4650000000004</c:v>
+                  <c:v>-1.26</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1702.04</c:v>
+                  <c:v>-1.25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1630.695</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1561.3999999999999</c:v>
+                  <c:v>-1.23</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1494.125</c:v>
+                  <c:v>-1.22</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1428.8400000000004</c:v>
+                  <c:v>-1.21</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1365.5149999999999</c:v>
+                  <c:v>-1.2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1304.1200000000001</c:v>
+                  <c:v>-1.19</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1244.6249999999998</c:v>
+                  <c:v>-1.18</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1187.0</c:v>
+                  <c:v>-1.17</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1131.2150000000004</c:v>
+                  <c:v>-1.16</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1077.24</c:v>
+                  <c:v>-1.15</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1025.045</c:v>
+                  <c:v>-1.14</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-974.5999999999998</c:v>
+                  <c:v>-1.13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-925.875</c:v>
+                  <c:v>-1.12</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-878.8400000000003</c:v>
+                  <c:v>-1.11</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-833.4649999999998</c:v>
+                  <c:v>-1.1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-789.72</c:v>
+                  <c:v>-1.09</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-747.5749999999998</c:v>
+                  <c:v>-1.08</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-707.0</c:v>
+                  <c:v>-1.07</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-667.9650000000001</c:v>
+                  <c:v>-1.06</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-630.4399999999999</c:v>
+                  <c:v>-1.05</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-594.3950000000001</c:v>
+                  <c:v>-1.04</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-559.8</c:v>
+                  <c:v>-1.03</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-526.625</c:v>
+                  <c:v>-1.02</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-494.84000000000015</c:v>
+                  <c:v>-1.01</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-464.41499999999996</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-435.32000000000005</c:v>
+                  <c:v>-0.99</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-407.5249999999999</c:v>
+                  <c:v>-0.98</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-381.0</c:v>
+                  <c:v>-0.97</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-355.715</c:v>
+                  <c:v>-0.96</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-331.63999999999993</c:v>
+                  <c:v>-0.95</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-308.74500000000006</c:v>
+                  <c:v>-0.94</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-287.00000000000006</c:v>
+                  <c:v>-0.93</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-266.375</c:v>
+                  <c:v>-0.92</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-246.83999999999997</c:v>
+                  <c:v>-0.91</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-228.365</c:v>
+                  <c:v>-0.9</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-210.92000000000004</c:v>
+                  <c:v>-0.89</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-194.47500000000002</c:v>
+                  <c:v>-0.88</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-179.0</c:v>
+                  <c:v>-0.87</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-164.46499999999997</c:v>
+                  <c:v>-0.86</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-150.83999999999997</c:v>
+                  <c:v>-0.85</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-138.09500000000003</c:v>
+                  <c:v>-0.84</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-126.19999999999999</c:v>
+                  <c:v>-0.83</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-115.125</c:v>
+                  <c:v>-0.82</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-104.83999999999999</c:v>
+                  <c:v>-0.81</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-95.315</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-86.52000000000001</c:v>
+                  <c:v>-0.79</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-78.42500000000001</c:v>
+                  <c:v>-0.78</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-71.0</c:v>
+                  <c:v>-0.77</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-64.21499999999999</c:v>
+                  <c:v>-0.76</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-58.04</c:v>
+                  <c:v>-0.75</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-52.445</c:v>
+                  <c:v>-0.74</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-47.400000000000006</c:v>
+                  <c:v>-0.73</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-42.875</c:v>
+                  <c:v>-0.72</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-38.839999999999996</c:v>
+                  <c:v>-0.71</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-35.265</c:v>
+                  <c:v>-0.7</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-32.12</c:v>
+                  <c:v>-0.69</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-29.375000000000004</c:v>
+                  <c:v>-0.68</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-27.0</c:v>
+                  <c:v>-0.67</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-24.965</c:v>
+                  <c:v>-0.66</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-23.240000000000002</c:v>
+                  <c:v>-0.65</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-21.794999999999998</c:v>
+                  <c:v>-0.64</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-20.6</c:v>
+                  <c:v>-0.63</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-19.625</c:v>
+                  <c:v>-0.62</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-18.84</c:v>
+                  <c:v>-0.61</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-18.215</c:v>
+                  <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-17.72</c:v>
+                  <c:v>-0.59</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-17.325</c:v>
+                  <c:v>-0.58</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-17.0</c:v>
+                  <c:v>-0.57</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-16.715</c:v>
+                  <c:v>-0.56</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-16.44</c:v>
+                  <c:v>-0.55</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-16.145</c:v>
+                  <c:v>-0.54</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-15.8</c:v>
+                  <c:v>-0.53</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-15.375</c:v>
+                  <c:v>-0.52</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-14.84</c:v>
+                  <c:v>-0.51</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-14.165000000000001</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-13.32</c:v>
+                  <c:v>-0.49</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-12.274999999999999</c:v>
+                  <c:v>-0.48</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-11.0</c:v>
+                  <c:v>-0.47</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-9.464999999999998</c:v>
+                  <c:v>-0.46</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-7.640000000000001</c:v>
+                  <c:v>-0.45</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-5.495000000000001</c:v>
+                  <c:v>-0.44</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-3.0000000000000036</c:v>
+                  <c:v>-0.43</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.125</c:v>
+                  <c:v>-0.42</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.1600000000000037</c:v>
+                  <c:v>-0.41</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6.884999999999998</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>11.080000000000005</c:v>
+                  <c:v>-0.39</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>15.774999999999991</c:v>
+                  <c:v>-0.38</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>21.0</c:v>
+                  <c:v>-0.37</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>26.78500000000001</c:v>
+                  <c:v>-0.36</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>33.16000000000002</c:v>
+                  <c:v>-0.35</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>40.154999999999994</c:v>
+                  <c:v>-0.34</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>47.8</c:v>
+                  <c:v>-0.33</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>56.125</c:v>
+                  <c:v>-0.32</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>65.16</c:v>
+                  <c:v>-0.31</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>74.93500000000003</c:v>
+                  <c:v>-0.3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>85.47999999999999</c:v>
+                  <c:v>-0.29</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>96.825</c:v>
+                  <c:v>-0.28</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>109.0</c:v>
+                  <c:v>-0.27</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>122.03500000000003</c:v>
+                  <c:v>-0.26</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>135.96</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>150.805</c:v>
+                  <c:v>-0.24</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>166.59999999999997</c:v>
+                  <c:v>-0.23</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>183.375</c:v>
+                  <c:v>-0.22</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>201.16000000000003</c:v>
+                  <c:v>-0.21</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>219.98500000000004</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>239.87999999999994</c:v>
+                  <c:v>-0.19</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>260.87499999999994</c:v>
+                  <c:v>-0.18</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>283.0</c:v>
+                  <c:v>-0.17</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>306.2849999999999</c:v>
+                  <c:v>-0.16</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>330.7600000000001</c:v>
+                  <c:v>-0.15</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>356.4549999999999</c:v>
+                  <c:v>-0.14</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>383.4000000000001</c:v>
+                  <c:v>-0.13</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>411.625</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>441.15999999999997</c:v>
+                  <c:v>-0.11</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>472.035</c:v>
+                  <c:v>-0.1</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>504.28</c:v>
+                  <c:v>-0.09</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>537.9250000000002</c:v>
+                  <c:v>-0.08</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>573.0</c:v>
+                  <c:v>-0.07</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>609.5349999999999</c:v>
+                  <c:v>-0.06</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>647.56</c:v>
+                  <c:v>-0.05</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>687.1049999999999</c:v>
+                  <c:v>-0.04</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>728.2000000000002</c:v>
+                  <c:v>-0.03</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>770.875</c:v>
+                  <c:v>-0.02</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>815.1599999999997</c:v>
+                  <c:v>-0.01</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>861.085</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>908.68</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>957.9750000000003</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1009.0</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1061.7849999999996</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1116.36</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1172.755</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1231.0000000000002</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1291.125</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1353.16</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1417.135</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1483.08</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1551.0250000000003</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1621.0</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1693.0349999999999</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1767.16</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1843.4050000000002</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1921.8000000000004</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2002.375</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2085.16</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2170.185</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2257.48</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2347.075</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2439.0</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2533.285</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2629.959999999999</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2729.0550000000007</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2830.6000000000004</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2934.625</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3041.16</c:v>
+                  <c:v>0.29</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3150.2349999999988</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3261.880000000001</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3376.125</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3493.0</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3612.535</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3734.7599999999998</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3859.705000000001</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3987.3999999999996</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4117.875</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4251.16</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4387.284999999999</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4526.280000000001</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4668.175</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>4813.0</c:v>
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.09</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.11</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.12</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.13</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.14</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.15</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.16</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2688,7 +4059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C315"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2696,2414 +4067,3782 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n" s="0">
-        <v>-10.0</v>
+        <v>-1.57</v>
       </c>
       <c r="B1" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-10--5))-(-5+((-5*-10)*(((-5--5)+(-10--5))+-10))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-10*(-10-(-5/-5)))*(-10-(-10/(-5*-10))))-(-5/-5)))))</f>
-        <v>-5247.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.57))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5707965516046575</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>-5247.0</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>-9.9</v>
+        <v>-1.56</v>
       </c>
       <c r="B2" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-9.9--5))-(-5+((-5*-9.9)*(((-5--5)+(-9.9--5))+-9.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-9.9*(-9.9-(-5/-5)))*(-9.9-(-9.9/(-5*-9.9))))-(-5/-5)))))</f>
-        <v>-5094.215</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.56))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5708545143065258</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>-5094.215000000001</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>-9.8</v>
+        <v>-1.55</v>
       </c>
       <c r="B3" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-9.8--5))-(-5+((-5*-9.8)*(((-5--5)+(-9.8--5))+-9.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-9.8*(-9.8-(-5/-5)))*(-9.8-(-9.8/(-5*-9.8))))-(-5/-5)))))</f>
-        <v>-4944.44</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.55))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5710124703471351</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>-4944.4400000000005</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>-9.7</v>
+        <v>-1.54</v>
       </c>
       <c r="B4" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-9.7--5))-(-5+((-5*-9.7)*(((-5--5)+(-9.7--5))+-9.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-9.7*(-9.7-(-5/-5)))*(-9.7-(-9.7/(-5*-9.7))))-(-5/-5)))))</f>
-        <v>-4797.6449999999995</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.54))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.571270403931013</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>-4797.6449999999995</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>-9.6</v>
+        <v>-1.53</v>
       </c>
       <c r="B5" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-9.6--5))-(-5+((-5*-9.6)*(((-5--5)+(-9.6--5))+-9.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-9.6*(-9.6-(-5/-5)))*(-9.6-(-9.6/(-5*-9.6))))-(-5/-5)))))</f>
-        <v>-4653.8</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.53))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5716282892650161</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>-4653.799999999999</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>-9.5</v>
+        <v>-1.52</v>
       </c>
       <c r="B6" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-9.5--5))-(-5+((-5*-9.5)*(((-5--5)+(-9.5--5))+-9.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-9.5*(-9.5-(-5/-5)))*(-9.5-(-9.5/(-5*-9.5))))-(-5/-5)))))</f>
-        <v>-4512.875</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.52))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5720860905609091</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>-4512.875</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>-9.4</v>
+        <v>-1.51</v>
       </c>
       <c r="B7" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-9.4--5))-(-5+((-5*-9.4)*(((-5--5)+(-9.4--5))+-9.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-9.4*(-9.4-(-5/-5)))*(-9.4-(-9.4/(-5*-9.4))))-(-5/-5)))))</f>
-        <v>-4374.84</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.51))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.572643762038944</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>-4374.84</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>-9.3</v>
+        <v>-1.5</v>
       </c>
       <c r="B8" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-9.3--5))-(-5+((-5*-9.3)*(((-5--5)+(-9.3--5))+-9.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-9.3*(-9.3-(-5/-5)))*(-9.3-(-9.3/(-5*-9.3))))-(-5/-5)))))</f>
-        <v>-4239.665</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.5))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5733012479324376</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>-4239.665000000001</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>-9.2</v>
+        <v>-1.49</v>
       </c>
       <c r="B9" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-9.2--5))-(-5+((-5*-9.2)*(((-5--5)+(-9.2--5))+-9.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-9.2*(-9.2-(-5/-5)))*(-9.2-(-9.2/(-5*-9.2))))-(-5/-5)))))</f>
-        <v>-4107.320000000001</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.49))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5740584824933487</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>-4107.32</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>-9.1</v>
+        <v>-1.48</v>
       </c>
       <c r="B10" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-9.1--5))-(-5+((-5*-9.1)*(((-5--5)+(-9.1--5))+-9.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-9.1*(-9.1-(-5/-5)))*(-9.1-(-9.1/(-5*-9.1))))-(-5/-5)))))</f>
-        <v>-3977.775</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.48))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5749153899988521</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>-3977.7749999999996</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>-9.0</v>
+        <v>-1.47</v>
       </c>
       <c r="B11" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-9--5))-(-5+((-5*-9)*(((-5--5)+(-9--5))+-9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-9*(-9-(-5/-5)))*(-9-(-9/(-5*-9))))-(-5/-5)))))</f>
-        <v>-3851.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.47))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5758718847589112</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>-3851.0</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>-8.9</v>
+        <v>-1.46</v>
       </c>
       <c r="B12" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-8.9--5))-(-5+((-5*-8.9)*(((-5--5)+(-8.9--5))+-8.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-8.9*(-8.9-(-5/-5)))*(-8.9-(-8.9/(-5*-8.9))))-(-5/-5)))))</f>
-        <v>-3726.9649999999997</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.46))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5769278711248472</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>-3726.965</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>-8.8</v>
+        <v>-1.45</v>
       </c>
       <c r="B13" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-8.8--5))-(-5+((-5*-8.8)*(((-5--5)+(-8.8--5))+-8.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-8.8*(-8.8-(-5/-5)))*(-8.8-(-8.8/(-5*-8.8))))-(-5/-5)))))</f>
-        <v>-3605.6400000000003</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.45))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5780832434989036</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>-3605.6400000000012</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>-8.7</v>
+        <v>-1.44</v>
       </c>
       <c r="B14" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-8.7--5))-(-5+((-5*-8.7)*(((-5--5)+(-8.7--5))+-8.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-8.7*(-8.7-(-5/-5)))*(-8.7-(-8.7/(-5*-8.7))))-(-5/-5)))))</f>
-        <v>-3486.995</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.44))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5793378863448057</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>-3486.994999999999</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>-8.6</v>
+        <v>-1.43</v>
       </c>
       <c r="B15" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-8.6--5))-(-5+((-5*-8.6)*(((-5--5)+(-8.6--5))+-8.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-8.6*(-8.6-(-5/-5)))*(-8.6-(-8.6/(-5*-8.6))))-(-5/-5)))))</f>
-        <v>-3371.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.43))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5806916741993143</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>-3371.0</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
-        <v>-8.5</v>
+        <v>-1.42</v>
       </c>
       <c r="B16" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-8.5--5))-(-5+((-5*-8.5)*(((-5--5)+(-8.5--5))+-8.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-8.5*(-8.5-(-5/-5)))*(-8.5-(-8.5/(-5*-8.5))))-(-5/-5)))))</f>
-        <v>-3257.625</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.42))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5821444716847723</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>-3257.625</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
-        <v>-8.4</v>
+        <v>-1.41</v>
       </c>
       <c r="B17" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-8.4--5))-(-5+((-5*-8.4)*(((-5--5)+(-8.4--5))+-8.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-8.4*(-8.4-(-5/-5)))*(-8.4-(-8.4/(-5*-8.4))))-(-5/-5)))))</f>
-        <v>-3146.84</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.41))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5836961335226417</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>-3146.84</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
-        <v>-8.3</v>
+        <v>-1.4</v>
       </c>
       <c r="B18" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-8.3--5))-(-5+((-5*-8.3)*(((-5--5)+(-8.3--5))+-8.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-8.3*(-8.3-(-5/-5)))*(-8.3-(-8.3/(-5*-8.3))))-(-5/-5)))))</f>
-        <v>-3038.6150000000002</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.4))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5853465045480319</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>-3038.615000000001</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
-        <v>-8.2</v>
+        <v>-1.39</v>
       </c>
       <c r="B19" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-8.2--5))-(-5+((-5*-8.2)*(((-5--5)+(-8.2--5))+-8.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-8.2*(-8.2-(-5/-5)))*(-8.2-(-8.2/(-5*-8.2))))-(-5/-5)))))</f>
-        <v>-2932.9199999999996</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.39))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5870954197252155</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>-2932.919999999999</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
-        <v>-8.1</v>
+        <v>-1.38</v>
       </c>
       <c r="B20" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-8.1--5))-(-5+((-5*-8.1)*(((-5--5)+(-8.1--5))+-8.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-8.1*(-8.1-(-5/-5)))*(-8.1-(-8.1/(-5*-8.1))))-(-5/-5)))))</f>
-        <v>-2829.7249999999995</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.38))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5889427041641324</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>-2829.7249999999995</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
-        <v>-8.0</v>
+        <v>-1.37</v>
       </c>
       <c r="B21" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-8--5))-(-5+((-5*-8)*(((-5--5)+(-8--5))+-8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-8*(-8-(-5/-5)))*(-8-(-8/(-5*-8))))-(-5/-5)))))</f>
-        <v>-2729.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.37))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5908881731378779</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>-2729.0</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="0">
-        <v>-7.9</v>
+        <v>-1.36</v>
       </c>
       <c r="B22" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-7.9--5))-(-5+((-5*-7.9)*(((-5--5)+(-7.9--5))+-7.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-7.9*(-7.9-(-5/-5)))*(-7.9-(-7.9/(-5*-7.9))))-(-5/-5)))))</f>
-        <v>-2630.715</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.36))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5929316321011758</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>-2630.715</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="0">
-        <v>-7.8</v>
+        <v>-1.35</v>
       </c>
       <c r="B23" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-7.8--5))-(-5+((-5*-7.8)*(((-5--5)+(-7.8--5))+-7.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-7.8*(-7.8-(-5/-5)))*(-7.8-(-7.8/(-5*-7.8))))-(-5/-5)))))</f>
-        <v>-2534.84</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.35))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.595072876709833</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>-2534.8399999999997</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
-        <v>-7.7</v>
+        <v>-1.34</v>
       </c>
       <c r="B24" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-7.7--5))-(-5+((-5*-7.7)*(((-5--5)+(-7.7--5))+-7.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-7.7*(-7.7-(-5/-5)))*(-7.7-(-7.7/(-5*-7.7))))-(-5/-5)))))</f>
-        <v>-2441.345</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.34))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5973116928411727</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>-2441.345</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n" s="0">
-        <v>-7.6</v>
+        <v>-1.33</v>
       </c>
       <c r="B25" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-7.6--5))-(-5+((-5*-7.6)*(((-5--5)+(-7.6--5))+-7.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-7.6*(-7.6-(-5/-5)))*(-7.6-(-7.6/(-5*-7.6))))-(-5/-5)))))</f>
-        <v>-2350.2000000000003</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.33))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.5996478566154475</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>-2350.2</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="0">
-        <v>-7.5</v>
+        <v>-1.32</v>
       </c>
       <c r="B26" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-7.5--5))-(-5+((-5*-7.5)*(((-5--5)+(-7.5--5))+-7.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-7.5*(-7.5-(-5/-5)))*(-7.5-(-7.5/(-5*-7.5))))-(-5/-5)))))</f>
-        <v>-2261.375</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.32))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6020811344182269</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>-2261.375</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n" s="0">
-        <v>-7.4</v>
+        <v>-1.31</v>
       </c>
       <c r="B27" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-7.4--5))-(-5+((-5*-7.4)*(((-5--5)+(-7.4--5))+-7.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-7.4*(-7.4-(-5/-5)))*(-7.4-(-7.4/(-5*-7.4))))-(-5/-5)))))</f>
-        <v>-2174.84</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.31))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6046112829237581</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>-2174.84</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n" s="0">
-        <v>-7.3</v>
+        <v>-1.3</v>
       </c>
       <c r="B28" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-7.3--5))-(-5+((-5*-7.3)*(((-5--5)+(-7.3--5))+-7.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-7.3*(-7.3-(-5/-5)))*(-7.3-(-7.3/(-5*-7.3))))-(-5/-5)))))</f>
-        <v>-2090.565</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.3))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6072380491192991</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>-2090.565</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="0">
-        <v>-7.2</v>
+        <v>-1.29</v>
       </c>
       <c r="B29" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-7.2--5))-(-5+((-5*-7.2)*(((-5--5)+(-7.2--5))+-7.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-7.2*(-7.2-(-5/-5)))*(-7.2-(-7.2/(-5*-7.2))))-(-5/-5)))))</f>
-        <v>-2008.52</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.29))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6099611703304194</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>-2008.5200000000002</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="0">
-        <v>-7.1</v>
+        <v>-1.28</v>
       </c>
       <c r="B30" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-7.1--5))-(-5+((-5*-7.1)*(((-5--5)+(-7.1--5))+-7.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-7.1*(-7.1-(-5/-5)))*(-7.1-(-7.1/(-5*-7.1))))-(-5/-5)))))</f>
-        <v>-1928.6750000000002</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.28))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6127803742472672</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>-1928.6749999999997</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="0">
-        <v>-7.0</v>
+        <v>-1.27</v>
       </c>
       <c r="B31" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-7--5))-(-5+((-5*-7)*(((-5--5)+(-7--5))+-7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-7*(-7-(-5/-5)))*(-7-(-7/(-5*-7))))-(-5/-5)))))</f>
-        <v>-1851.0000000000002</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.27))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6156953789517998</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>-1851.0</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="0">
-        <v>-6.9</v>
+        <v>-1.26</v>
       </c>
       <c r="B32" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-6.9--5))-(-5+((-5*-6.9)*(((-5--5)+(-6.9--5))+-6.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-6.9*(-6.9-(-5/-5)))*(-6.9-(-6.9/(-5*-6.9))))-(-5/-5)))))</f>
-        <v>-1775.4650000000001</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.26))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6187058929459763</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>-1775.4650000000004</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="0">
-        <v>-6.8</v>
+        <v>-1.25</v>
       </c>
       <c r="B33" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-6.8--5))-(-5+((-5*-6.8)*(((-5--5)+(-6.8--5))+-6.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-6.8*(-6.8-(-5/-5)))*(-6.8-(-6.8/(-5*-6.8))))-(-5/-5)))))</f>
-        <v>-1702.0400000000002</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.25))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6218116151809059</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>-1702.04</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="0">
-        <v>-6.7</v>
+        <v>-1.24</v>
       </c>
       <c r="B34" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-6.7--5))-(-5+((-5*-6.7)*(((-5--5)+(-6.7--5))+-6.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-6.7*(-6.7-(-5/-5)))*(-6.7-(-6.7/(-5*-6.7))))-(-5/-5)))))</f>
-        <v>-1630.695</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.24))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6250122350869531</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>-1630.695</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="0">
-        <v>-6.6</v>
+        <v>-1.23</v>
       </c>
       <c r="B35" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-6.6--5))-(-5+((-5*-6.6)*(((-5--5)+(-6.6--5))+-6.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-6.6*(-6.6-(-5/-5)))*(-6.6-(-6.6/(-5*-6.6))))-(-5/-5)))))</f>
-        <v>-1561.3999999999999</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.23))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6283074326047946</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>-1561.3999999999999</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="0">
-        <v>-6.5</v>
+        <v>-1.22</v>
       </c>
       <c r="B36" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-6.5--5))-(-5+((-5*-6.5)*(((-5--5)+(-6.5--5))+-6.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-6.5*(-6.5-(-5/-5)))*(-6.5-(-6.5/(-5*-6.5))))-(-5/-5)))))</f>
-        <v>-1494.125</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.22))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6316968782174245</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>-1494.125</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="0">
-        <v>-6.4</v>
+        <v>-1.21</v>
       </c>
       <c r="B37" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-6.4--5))-(-5+((-5*-6.4)*(((-5--5)+(-6.4--5))+-6.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-6.4*(-6.4-(-5/-5)))*(-6.4-(-6.4/(-5*-6.4))))-(-5/-5)))))</f>
-        <v>-1428.8400000000001</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.21))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6351802329831062</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>-1428.8400000000004</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="0">
-        <v>-6.3</v>
+        <v>-1.2</v>
       </c>
       <c r="B38" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-6.3--5))-(-5+((-5*-6.3)*(((-5--5)+(-6.3--5))+-6.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-6.3*(-6.3-(-5/-5)))*(-6.3-(-6.3/(-5*-6.3))))-(-5/-5)))))</f>
-        <v>-1365.5149999999999</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.2))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6387571485692658</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>-1365.5149999999999</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="0">
-        <v>-6.2</v>
+        <v>-1.19</v>
       </c>
       <c r="B39" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-6.2--5))-(-5+((-5*-6.2)*(((-5--5)+(-6.2--5))+-6.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-6.2*(-6.2-(-5/-5)))*(-6.2-(-6.2/(-5*-6.2))))-(-5/-5)))))</f>
-        <v>-1304.1200000000003</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.19))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6424272672873255</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>-1304.1200000000001</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="0">
-        <v>-6.1</v>
+        <v>-1.18</v>
       </c>
       <c r="B40" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-6.1--5))-(-5+((-5*-6.1)*(((-5--5)+(-6.1--5))+-6.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-6.1*(-6.1-(-5/-5)))*(-6.1-(-6.1/(-5*-6.1))))-(-5/-5)))))</f>
-        <v>-1244.6249999999995</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.18))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6461902221284718</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>-1244.6249999999998</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="0">
-        <v>-6.0</v>
+        <v>-1.17</v>
       </c>
       <c r="B41" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-6--5))-(-5+((-5*-6)*(((-5--5)+(-6--5))+-6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-6*(-6-(-5/-5)))*(-6-(-6/(-5*-6))))-(-5/-5)))))</f>
-        <v>-1187.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.17))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6500456368003564</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>-1187.0</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="0">
-        <v>-5.9</v>
+        <v>-1.16</v>
       </c>
       <c r="B42" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-5.9--5))-(-5+((-5*-5.9)*(((-5--5)+(-5.9--5))+-5.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-5.9*(-5.9-(-5/-5)))*(-5.9-(-5.9/(-5*-5.9))))-(-5/-5)))))</f>
-        <v>-1131.215</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.16))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6539931257647252</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>-1131.2150000000004</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="0">
-        <v>-5.8</v>
+        <v>-1.15</v>
       </c>
       <c r="B43" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-5.8--5))-(-5+((-5*-5.8)*(((-5--5)+(-5.8--5))+-5.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-5.8*(-5.8-(-5/-5)))*(-5.8-(-5.8/(-5*-5.8))))-(-5/-5)))))</f>
-        <v>-1077.24</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.15))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6580322942759711</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>-1077.24</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="0">
-        <v>-5.7</v>
+        <v>-1.14</v>
       </c>
       <c r="B44" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-5.7--5))-(-5+((-5*-5.7)*(((-5--5)+(-5.7--5))+-5.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-5.7*(-5.7-(-5/-5)))*(-5.7-(-5.7/(-5*-5.7))))-(-5/-5)))))</f>
-        <v>-1025.045</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.14))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6621627384206089</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>-1025.045</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="0">
-        <v>-5.6</v>
+        <v>-1.13</v>
       </c>
       <c r="B45" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-5.6--5))-(-5+((-5*-5.6)*(((-5--5)+(-5.6--5))+-5.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-5.6*(-5.6-(-5/-5)))*(-5.6-(-5.6/(-5*-5.6))))-(-5/-5)))))</f>
-        <v>-974.5999999999999</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.13))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6663840451576662</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>-974.5999999999998</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="0">
-        <v>-5.5</v>
+        <v>-1.12</v>
       </c>
       <c r="B46" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-5.5--5))-(-5+((-5*-5.5)*(((-5--5)+(-5.5--5))+-5.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-5.5*(-5.5-(-5/-5)))*(-5.5-(-5.5/(-5*-5.5))))-(-5/-5)))))</f>
-        <v>-925.875</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.12))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.670695792359987</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>-925.875</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="0">
-        <v>-5.4</v>
+        <v>-1.11</v>
       </c>
       <c r="B47" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-5.4--5))-(-5+((-5*-5.4)*(((-5--5)+(-5.4--5))+-5.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-5.4*(-5.4-(-5/-5)))*(-5.4-(-5.4/(-5*-5.4))))-(-5/-5)))))</f>
-        <v>-878.8399999999999</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.11))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6750975488564445</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>-878.8400000000003</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="0">
-        <v>-5.3</v>
+        <v>-1.1</v>
       </c>
       <c r="B48" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-5.3--5))-(-5+((-5*-5.3)*(((-5--5)+(-5.3--5))+-5.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-5.3*(-5.3-(-5/-5)))*(-5.3-(-5.3/(-5*-5.3))))-(-5/-5)))))</f>
-        <v>-833.465</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.1))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6795888744750567</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>-833.4649999999998</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="0">
-        <v>-5.2</v>
+        <v>-1.09</v>
       </c>
       <c r="B49" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-5.2--5))-(-5+((-5*-5.2)*(((-5--5)+(-5.2--5))+-5.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-5.2*(-5.2-(-5/-5)))*(-5.2-(-5.2/(-5*-5.2))))-(-5/-5)))))</f>
-        <v>-789.72</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.09))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6841693200870048</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>-789.72</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="0">
-        <v>-5.1</v>
+        <v>-1.08</v>
       </c>
       <c r="B50" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-5.1--5))-(-5+((-5*-5.1)*(((-5--5)+(-5.1--5))+-5.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-5.1*(-5.1-(-5/-5)))*(-5.1-(-5.1/(-5*-5.1))))-(-5/-5)))))</f>
-        <v>-747.575</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.08))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6888384276515446</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>-747.5749999999998</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="0">
-        <v>-5.0</v>
+        <v>-1.07</v>
       </c>
       <c r="B51" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-5--5))-(-5+((-5*-5)*(((-5--5)+(-5--5))+-5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-5*(-5-(-5/-5)))*(-5-(-5/(-5*-5))))-(-5/-5)))))</f>
-        <v>-706.9999999999998</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.07))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6935957302618104</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>-707.0</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="0">
-        <v>-4.9</v>
+        <v>-1.06</v>
       </c>
       <c r="B52" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-4.9--5))-(-5+((-5*-4.9)*(((-5--5)+(-4.9--5))+-4.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-4.9*(-4.9-(-5/-5)))*(-4.9-(-4.9/(-5*-4.9))))-(-5/-5)))))</f>
-        <v>-667.965</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.06))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.6984407521915058</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>-667.9650000000001</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="0">
-        <v>-4.8</v>
+        <v>-1.05</v>
       </c>
       <c r="B53" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-4.8--5))-(-5+((-5*-4.8)*(((-5--5)+(-4.8--5))+-4.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-4.8*(-4.8-(-5/-5)))*(-4.8-(-4.8/(-5*-4.8))))-(-5/-5)))))</f>
-        <v>-630.44</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.05))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7033730089424751</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>-630.4399999999999</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="0">
-        <v>-4.7</v>
+        <v>-1.04</v>
       </c>
       <c r="B54" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-4.7--5))-(-5+((-5*-4.7)*(((-5--5)+(-4.7--5))+-4.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-4.7*(-4.7-(-5/-5)))*(-4.7-(-4.7/(-5*-4.7))))-(-5/-5)))))</f>
-        <v>-594.395</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.04))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7083920072931537</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>-594.3950000000001</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="0">
-        <v>-4.6</v>
+        <v>-1.03</v>
       </c>
       <c r="B55" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-4.6--5))-(-5+((-5*-4.6)*(((-5--5)+(-4.6--5))+-4.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-4.6*(-4.6-(-5/-5)))*(-4.6-(-4.6/(-5*-4.6))))-(-5/-5)))))</f>
-        <v>-559.8000000000001</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.03))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7134972453478887</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>-559.8</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="0">
-        <v>-4.5</v>
+        <v>-1.02</v>
       </c>
       <c r="B56" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-4.5--5))-(-5+((-5*-4.5)*(((-5--5)+(-4.5--5))+-4.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-4.5*(-4.5-(-5/-5)))*(-4.5-(-4.5/(-5*-4.5))))-(-5/-5)))))</f>
-        <v>-526.625</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.02))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7186882125871291</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>-526.625</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="0">
-        <v>-4.4</v>
+        <v>-1.01</v>
       </c>
       <c r="B57" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-4.4--5))-(-5+((-5*-4.4)*(((-5--5)+(-4.4--5))+-4.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-4.4*(-4.4-(-5/-5)))*(-4.4-(-4.4/(-5*-4.4))))-(-5/-5)))))</f>
-        <v>-494.84</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1.01))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7239643899184769</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>-494.84000000000015</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="0">
-        <v>-4.3</v>
+        <v>-1.0</v>
       </c>
       <c r="B58" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-4.3--5))-(-5+((-5*-4.3)*(((-5--5)+(-4.3--5))+-4.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-4.3*(-4.3-(-5/-5)))*(-4.3-(-4.3/(-5*-4.3))))-(-5/-5)))))</f>
-        <v>-464.41499999999996</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-1))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7293252497285956</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>-464.41499999999996</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="0">
-        <v>-4.2</v>
+        <v>-0.99</v>
       </c>
       <c r="B59" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-4.2--5))-(-5+((-5*-4.2)*(((-5--5)+(-4.2--5))+-4.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-4.2*(-4.2-(-5/-5)))*(-4.2-(-4.2/(-5*-4.2))))-(-5/-5)))))</f>
-        <v>-435.32</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.99))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7347702559359716</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>-435.32000000000005</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="0">
-        <v>-4.1</v>
+        <v>-0.98</v>
       </c>
       <c r="B60" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-4.1--5))-(-5+((-5*-4.1)*(((-5--5)+(-4.1--5))+-4.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-4.1*(-4.1-(-5/-5)))*(-4.1-(-4.1/(-5*-4.1))))-(-5/-5)))))</f>
-        <v>-407.525</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.98))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7402988640445216</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>-407.5249999999999</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="0">
-        <v>-4.0</v>
+        <v>-0.97</v>
       </c>
       <c r="B61" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-4--5))-(-5+((-5*-4)*(((-5--5)+(-4--5))+-4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-4*(-4-(-5/-5)))*(-4-(-4/(-5*-4))))-(-5/-5)))))</f>
-        <v>-381.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.97))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.745910521198042</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>-381.0</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="0">
-        <v>-3.9</v>
+        <v>-0.96</v>
       </c>
       <c r="B62" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-3.9--5))-(-5+((-5*-3.9)*(((-5--5)+(-3.9--5))+-3.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-3.9*(-3.9-(-5/-5)))*(-3.9-(-3.9/(-5*-3.9))))-(-5/-5)))))</f>
-        <v>-355.71500000000003</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.96))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7516046662354938</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>-355.715</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="0">
-        <v>-3.8</v>
+        <v>-0.95</v>
       </c>
       <c r="B63" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-3.8--5))-(-5+((-5*-3.8)*(((-5--5)+(-3.8--5))+-3.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-3.8*(-3.8-(-5/-5)))*(-3.8-(-3.8/(-5*-3.8))))-(-5/-5)))))</f>
-        <v>-331.64</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.95))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7573807297471183</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>-331.63999999999993</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="0">
-        <v>-3.7</v>
+        <v>-0.94</v>
       </c>
       <c r="B64" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-3.7--5))-(-5+((-5*-3.7)*(((-5--5)+(-3.7--5))+-3.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-3.7*(-3.7-(-5/-5)))*(-3.7-(-3.7/(-5*-3.7))))-(-5/-5)))))</f>
-        <v>-308.745</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.94))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7632381341313779</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>-308.74500000000006</v>
+        <v>-0.94</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="0">
-        <v>-3.6</v>
+        <v>-0.93</v>
       </c>
       <c r="B65" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-3.6--5))-(-5+((-5*-3.6)*(((-5--5)+(-3.6--5))+-3.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-3.6*(-3.6-(-5/-5)))*(-3.6-(-3.6/(-5*-3.6))))-(-5/-5)))))</f>
-        <v>-287.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.93))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7691762936527149</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>-287.00000000000006</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="0">
-        <v>-3.5</v>
+        <v>-0.92</v>
       </c>
       <c r="B66" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-3.5--5))-(-5+((-5*-3.5)*(((-5--5)+(-3.5--5))+-3.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-3.5*(-3.5-(-5/-5)))*(-3.5-(-3.5/(-5*-3.5))))-(-5/-5)))))</f>
-        <v>-266.375</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.92))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7751946145001261</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>-266.375</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="0">
-        <v>-3.4</v>
+        <v>-0.91</v>
       </c>
       <c r="B67" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-3.4--5))-(-5+((-5*-3.4)*(((-5--5)+(-3.4--5))+-3.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-3.4*(-3.4-(-5/-5)))*(-3.4-(-3.4/(-5*-3.4))))-(-5/-5)))))</f>
-        <v>-246.84</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.91))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7812924948465416</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>-246.83999999999997</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="0">
-        <v>-3.3</v>
+        <v>-0.9</v>
       </c>
       <c r="B68" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-3.3--5))-(-5+((-5*-3.3)*(((-5--5)+(-3.3--5))+-3.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-3.3*(-3.3-(-5/-5)))*(-3.3-(-3.3/(-5*-3.3))))-(-5/-5)))))</f>
-        <v>-228.365</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.9))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7874693249090087</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>-228.365</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="0">
-        <v>-3.2</v>
+        <v>-0.89</v>
       </c>
       <c r="B69" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-3.2--5))-(-5+((-5*-3.2)*(((-5--5)+(-3.2--5))+-3.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-3.2*(-3.2-(-5/-5)))*(-3.2-(-3.2/(-5*-3.2))))-(-5/-5)))))</f>
-        <v>-210.92</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.89))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.7937244870096682</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>-210.92000000000004</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="0">
-        <v>-3.1</v>
+        <v>-0.88</v>
       </c>
       <c r="B70" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-3.1--5))-(-5+((-5*-3.1)*(((-5--5)+(-3.1--5))+-3.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-3.1*(-3.1-(-5/-5)))*(-3.1-(-3.1/(-5*-3.1))))-(-5/-5)))))</f>
-        <v>-194.475</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.88))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.8000573556375228</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>-194.47500000000002</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="0">
-        <v>-3.0</v>
+        <v>-0.87</v>
       </c>
       <c r="B71" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-3--5))-(-5+((-5*-3)*(((-5--5)+(-3--5))+-3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-3*(-3-(-5/-5)))*(-3-(-3/(-5*-3))))-(-5/-5)))))</f>
-        <v>-179.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.87))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.806467297510987</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>-179.0</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="0">
-        <v>-2.9</v>
+        <v>-0.86</v>
       </c>
       <c r="B72" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-2.9--5))-(-5+((-5*-2.9)*(((-5--5)+(-2.9--5))+-2.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-2.9*(-2.9-(-5/-5)))*(-2.9-(-2.9/(-5*-2.9))))-(-5/-5)))))</f>
-        <v>-164.465</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.86))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.8129536716412151</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>-164.46499999999997</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="0">
-        <v>-2.8</v>
+        <v>-0.85</v>
       </c>
       <c r="B73" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-2.8--5))-(-5+((-5*-2.8)*(((-5--5)+(-2.8--5))+-2.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-2.8*(-2.8-(-5/-5)))*(-2.8-(-2.8/(-5*-2.8))))-(-5/-5)))))</f>
-        <v>-150.83999999999997</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.85))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.8195158293961994</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>-150.83999999999997</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="0">
-        <v>-2.7</v>
+        <v>-0.84</v>
       </c>
       <c r="B74" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-2.7--5))-(-5+((-5*-2.7)*(((-5--5)+(-2.7--5))+-2.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-2.7*(-2.7-(-5/-5)))*(-2.7-(-2.7/(-5*-2.7))))-(-5/-5)))))</f>
-        <v>-138.095</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.84))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.8261531145656328</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>-138.09500000000003</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="0">
-        <v>-2.6</v>
+        <v>-0.83</v>
       </c>
       <c r="B75" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-2.6--5))-(-5+((-5*-2.6)*(((-5--5)+(-2.6--5))+-2.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-2.6*(-2.6-(-5/-5)))*(-2.6-(-2.6/(-5*-2.6))))-(-5/-5)))))</f>
-        <v>-126.19999999999999</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.83))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.8328648634265294</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>-126.19999999999999</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="0">
-        <v>-2.5</v>
+        <v>-0.82</v>
       </c>
       <c r="B76" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-2.5--5))-(-5+((-5*-2.5)*(((-5--5)+(-2.5--5))+-2.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-2.5*(-2.5-(-5/-5)))*(-2.5-(-2.5/(-5*-2.5))))-(-5/-5)))))</f>
-        <v>-115.125</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.82))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.8396504048095963</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>-115.125</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="0">
-        <v>-2.4</v>
+        <v>-0.81</v>
       </c>
       <c r="B77" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-2.4--5))-(-5+((-5*-2.4)*(((-5--5)+(-2.4--5))+-2.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-2.4*(-2.4-(-5/-5)))*(-2.4-(-2.4/(-5*-2.4))))-(-5/-5)))))</f>
-        <v>-104.84</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.81))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.8465090601663495</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>-104.83999999999999</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="0">
-        <v>-2.3</v>
+        <v>-0.8</v>
       </c>
       <c r="B78" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-2.3--5))-(-5+((-5*-2.3)*(((-5--5)+(-2.3--5))+-2.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-2.3*(-2.3-(-5/-5)))*(-2.3-(-2.3/(-5*-2.3))))-(-5/-5)))))</f>
-        <v>-95.315</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.8))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.8534401436369693</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>-95.315</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="0">
-        <v>-2.2</v>
+        <v>-0.79</v>
       </c>
       <c r="B79" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-2.2--5))-(-5+((-5*-2.2)*(((-5--5)+(-2.2--5))+-2.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-2.2*(-2.2-(-5/-5)))*(-2.2-(-2.2/(-5*-2.2))))-(-5/-5)))))</f>
-        <v>-86.52000000000001</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.79))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.8604429621188843</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>-86.52000000000001</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="0">
-        <v>-2.1</v>
+        <v>-0.78</v>
       </c>
       <c r="B80" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-2.1--5))-(-5+((-5*-2.1)*(((-5--5)+(-2.1--5))+-2.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-2.1*(-2.1-(-5/-5)))*(-2.1-(-2.1/(-5*-2.1))))-(-5/-5)))))</f>
-        <v>-78.425</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.78))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.8675168153360819</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>-78.42500000000001</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="0">
-        <v>-2.0</v>
+        <v>-0.77</v>
       </c>
       <c r="B81" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-2--5))-(-5+((-5*-2)*(((-5--5)+(-2--5))+-2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-2*(-2-(-5/-5)))*(-2-(-2/(-5*-2))))-(-5/-5)))))</f>
-        <v>-71.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.77))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.8746609959091354</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>-71.0</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="0">
-        <v>-1.9</v>
+        <v>-0.76</v>
       </c>
       <c r="B82" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-1.9--5))-(-5+((-5*-1.9)*(((-5--5)+(-1.9--5))+-1.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-1.9*(-1.9-(-5/-5)))*(-1.9-(-1.9/(-5*-1.9))))-(-5/-5)))))</f>
-        <v>-64.215</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.76))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.8818747894259408</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>-64.21499999999999</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="0">
-        <v>-1.8</v>
+        <v>-0.75</v>
       </c>
       <c r="B83" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-1.8--5))-(-5+((-5*-1.8)*(((-5--5)+(-1.8--5))+-1.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-1.8*(-1.8-(-5/-5)))*(-1.8-(-1.8/(-5*-1.8))))-(-5/-5)))))</f>
-        <v>-58.04</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.75))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.889157474513158</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>-58.04</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n" s="0">
-        <v>-1.7</v>
+        <v>-0.74</v>
       </c>
       <c r="B84" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-1.7--5))-(-5+((-5*-1.7)*(((-5--5)+(-1.7--5))+-1.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-1.7*(-1.7-(-5/-5)))*(-1.7-(-1.7/(-5*-1.7))))-(-5/-5)))))</f>
-        <v>-52.44499999999999</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.74))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.896508322908347</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>-52.445</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="0">
-        <v>-1.6</v>
+        <v>-0.73</v>
       </c>
       <c r="B85" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-1.6--5))-(-5+((-5*-1.6)*(((-5--5)+(-1.6--5))+-1.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-1.6*(-1.6-(-5/-5)))*(-1.6-(-1.6/(-5*-1.6))))-(-5/-5)))))</f>
-        <v>-47.4</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.73))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.9039265995327942</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>-47.400000000000006</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="0">
-        <v>-1.5</v>
+        <v>-0.72</v>
       </c>
       <c r="B86" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-1.5--5))-(-5+((-5*-1.5)*(((-5--5)+(-1.5--5))+-1.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-1.5*(-1.5-(-5/-5)))*(-1.5-(-1.5/(-5*-1.5))))-(-5/-5)))))</f>
-        <v>-42.875</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.72))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.911411562565019</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>-42.875</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n" s="0">
-        <v>-1.4</v>
+        <v>-0.71</v>
       </c>
       <c r="B87" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-1.4--5))-(-5+((-5*-1.4)*(((-5--5)+(-1.4--5))+-1.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-1.4*(-1.4-(-5/-5)))*(-1.4-(-1.4/(-5*-1.4))))-(-5/-5)))))</f>
-        <v>-38.83999999999998</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.71))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.9189624635149555</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>-38.839999999999996</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n" s="0">
-        <v>-1.3</v>
+        <v>-0.7</v>
       </c>
       <c r="B88" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-1.3--5))-(-5+((-5*-1.3)*(((-5--5)+(-1.3--5))+-1.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-1.3*(-1.3-(-5/-5)))*(-1.3-(-1.3/(-5*-1.3))))-(-5/-5)))))</f>
-        <v>-35.265</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.7))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.9265785472988011</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>-35.265</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="0">
-        <v>-1.2</v>
+        <v>-0.69</v>
       </c>
       <c r="B89" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-1.2--5))-(-5+((-5*-1.2)*(((-5--5)+(-1.2--5))+-1.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-1.2*(-1.2-(-5/-5)))*(-1.2-(-1.2/(-5*-1.2))))-(-5/-5)))))</f>
-        <v>-32.119999999999976</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.69))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.9342590523145242</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>-32.12</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n" s="0">
-        <v>-1.1</v>
+        <v>-0.68</v>
       </c>
       <c r="B90" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-1.1--5))-(-5+((-5*-1.1)*(((-5--5)+(-1.1--5))+-1.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-1.1*(-1.1-(-5/-5)))*(-1.1-(-1.1/(-5*-1.1))))-(-5/-5)))))</f>
-        <v>-29.37499999999998</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.68))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.9420032105180235</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>-29.375000000000004</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n" s="0">
-        <v>-1.0</v>
+        <v>-0.67</v>
       </c>
       <c r="B91" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-1--5))-(-5+((-5*-1)*(((-5--5)+(-1--5))+-1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-1*(-1-(-5/-5)))*(-1-(-1/(-5*-1))))-(-5/-5)))))</f>
-        <v>-27.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.67))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.9498102474999324</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>-27.0</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n" s="0">
-        <v>-0.9</v>
+        <v>-0.66</v>
       </c>
       <c r="B92" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-0.9--5))-(-5+((-5*-0.9)*(((-5--5)+(-0.9--5))+-0.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-0.9*(-0.9-(-5/-5)))*(-0.9-(-0.9/(-5*-0.9))))-(-5/-5)))))</f>
-        <v>-24.96499999999998</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.66))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.9576793825630583</v>
       </c>
       <c r="C92" t="n" s="0">
-        <v>-24.965</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n" s="0">
-        <v>-0.8</v>
+        <v>-0.65</v>
       </c>
       <c r="B93" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-0.8--5))-(-5+((-5*-0.8)*(((-5--5)+(-0.8--5))+-0.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-0.8*(-0.8-(-5/-5)))*(-0.8-(-0.8/(-5*-0.8))))-(-5/-5)))))</f>
-        <v>-23.23999999999998</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.65))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.9656098288004525</v>
       </c>
       <c r="C93" t="n" s="0">
-        <v>-23.240000000000002</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n" s="0">
-        <v>-0.7</v>
+        <v>-0.64</v>
       </c>
       <c r="B94" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-0.7--5))-(-5+((-5*-0.7)*(((-5--5)+(-0.7--5))+-0.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-0.7*(-0.7-(-5/-5)))*(-0.7-(-0.7/(-5*-0.7))))-(-5/-5)))))</f>
-        <v>-21.795</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.64))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.9736007931741</v>
       </c>
       <c r="C94" t="n" s="0">
-        <v>-21.794999999999998</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n" s="0">
-        <v>-0.6</v>
+        <v>-0.63</v>
       </c>
       <c r="B95" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-0.6--5))-(-5+((-5*-0.6)*(((-5--5)+(-0.6--5))+-0.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-0.6*(-0.6-(-5/-5)))*(-0.6-(-0.6/(-5*-0.6))))-(-5/-5)))))</f>
-        <v>-20.59999999999998</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.63))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.9816514765942226</v>
       </c>
       <c r="C95" t="n" s="0">
-        <v>-20.6</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n" s="0">
-        <v>-0.5</v>
+        <v>-0.62</v>
       </c>
       <c r="B96" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-0.5--5))-(-5+((-5*-0.5)*(((-5--5)+(-0.5--5))+-0.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-0.5*(-0.5-(-5/-5)))*(-0.5-(-0.5/(-5*-0.5))))-(-5/-5)))))</f>
-        <v>-19.625</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.62))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.989761073999187</v>
       </c>
       <c r="C96" t="n" s="0">
-        <v>-19.625</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n" s="0">
-        <v>-0.4</v>
+        <v>-0.61</v>
       </c>
       <c r="B97" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-0.4--5))-(-5+((-5*-0.4)*(((-5--5)+(-0.4--5))+-0.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-0.4*(-0.4-(-5/-5)))*(-0.4-(-0.4/(-5*-0.4))))-(-5/-5)))))</f>
-        <v>-18.84</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.61))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>0.9979287744360108</v>
       </c>
       <c r="C97" t="n" s="0">
-        <v>-18.84</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n" s="0">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="B98" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-0.3--5))-(-5+((-5*-0.3)*(((-5--5)+(-0.3--5))+-0.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-0.3*(-0.3-(-5/-5)))*(-0.3-(-0.3/(-5*-0.3))))-(-5/-5)))))</f>
-        <v>-18.215</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.6))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.0061537611414568</v>
       </c>
       <c r="C98" t="n" s="0">
-        <v>-18.215</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n" s="0">
-        <v>-0.2</v>
+        <v>-0.59</v>
       </c>
       <c r="B99" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-0.2--5))-(-5+((-5*-0.2)*(((-5--5)+(-0.2--5))+-0.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-0.2*(-0.2-(-5/-5)))*(-0.2-(-0.2/(-5*-0.2))))-(-5/-5)))))</f>
-        <v>-17.72</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.59))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.0144352116237083</v>
       </c>
       <c r="C99" t="n" s="0">
-        <v>-17.72</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n" s="0">
-        <v>-0.1</v>
+        <v>-0.58</v>
       </c>
       <c r="B100" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(-0.1--5))-(-5+((-5*-0.1)*(((-5--5)+(-0.1--5))+-0.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((-0.1*(-0.1-(-5/-5)))*(-0.1-(-0.1/(-5*-0.1))))-(-5/-5)))))</f>
-        <v>-17.325</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.58))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.0227722977446185</v>
       </c>
       <c r="C100" t="n" s="0">
-        <v>-17.325</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="B101" t="e" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(0--5))-(-5+((-5*0)*(((-5--5)+(0--5))+0))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((0*(0-(-5/-5)))*(0-(0/(-5*0))))-(-5/-5)))))</f>
-        <v>#DIV/0!</v>
+        <v>-0.57</v>
+      </c>
+      <c r="B101" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.57))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.031164185802523</v>
       </c>
       <c r="C101" t="n" s="0">
-        <v>-17.0</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n" s="0">
-        <v>0.1</v>
+        <v>-0.56</v>
       </c>
       <c r="B102" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(0.1--5))-(-5+((-5*0.1)*(((-5--5)+(0.1--5))+0.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((0.1*(0.1-(-5/-5)))*(0.1-(0.1/(-5*0.1))))-(-5/-5)))))</f>
-        <v>-16.715</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.56))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.0396100366156087</v>
       </c>
       <c r="C102" t="n" s="0">
-        <v>-16.715</v>
+        <v>-0.56</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n" s="0">
-        <v>0.2</v>
+        <v>-0.55</v>
       </c>
       <c r="B103" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(0.2--5))-(-5+((-5*0.2)*(((-5--5)+(0.2--5))+0.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((0.2*(0.2-(-5/-5)))*(0.2-(0.2/(-5*0.2))))-(-5/-5)))))</f>
-        <v>-16.44</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.55))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.0481090056058329</v>
       </c>
       <c r="C103" t="n" s="0">
-        <v>-16.44</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n" s="0">
-        <v>0.3</v>
+        <v>-0.54</v>
       </c>
       <c r="B104" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(0.3--5))-(-5+((-5*0.3)*(((-5--5)+(0.3--5))+0.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((0.3*(0.3-(-5/-5)))*(0.3-(0.3/(-5*0.3))))-(-5/-5)))))</f>
-        <v>-16.145</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.54))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.056660242883379</v>
       </c>
       <c r="C104" t="n" s="0">
-        <v>-16.145</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n" s="0">
-        <v>0.4</v>
+        <v>-0.53</v>
       </c>
       <c r="B105" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(0.4--5))-(-5+((-5*0.4)*(((-5--5)+(0.4--5))+0.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((0.4*(0.4-(-5/-5)))*(0.4-(0.4/(-5*0.4))))-(-5/-5)))))</f>
-        <v>-15.8</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.53))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.0652628933316453</v>
       </c>
       <c r="C105" t="n" s="0">
-        <v>-15.8</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n" s="0">
-        <v>0.5</v>
+        <v>-0.52</v>
       </c>
       <c r="B106" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(0.5--5))-(-5+((-5*0.5)*(((-5--5)+(0.5--5))+0.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((0.5*(0.5-(-5/-5)))*(0.5-(0.5/(-5*0.5))))-(-5/-5)))))</f>
-        <v>-15.375</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.52))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.0739160966927552</v>
       </c>
       <c r="C106" t="n" s="0">
-        <v>-15.375</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n" s="0">
-        <v>0.6</v>
+        <v>-0.51</v>
       </c>
       <c r="B107" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(0.6--5))-(-5+((-5*0.6)*(((-5--5)+(0.6--5))+0.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((0.6*(0.6-(-5/-5)))*(0.6-(0.6/(-5*0.6))))-(-5/-5)))))</f>
-        <v>-14.84</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.51))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.0826189876535846</v>
       </c>
       <c r="C107" t="n" s="0">
-        <v>-14.84</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n" s="0">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="B108" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(0.7--5))-(-5+((-5*0.7)*(((-5--5)+(0.7--5))+0.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((0.7*(0.7-(-5/-5)))*(0.7-(0.7/(-5*0.7))))-(-5/-5)))))</f>
-        <v>-14.165</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.5))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.091370695932289</v>
       </c>
       <c r="C108" t="n" s="0">
-        <v>-14.165000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n" s="0">
-        <v>0.8</v>
+        <v>-0.49</v>
       </c>
       <c r="B109" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(0.8--5))-(-5+((-5*0.8)*(((-5--5)+(0.8--5))+0.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((0.8*(0.8-(-5/-5)))*(0.8-(0.8/(-5*0.8))))-(-5/-5)))))</f>
-        <v>-13.319999999999979</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.49))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.100170346365334</v>
       </c>
       <c r="C109" t="n" s="0">
-        <v>-13.32</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n" s="0">
-        <v>0.9</v>
+        <v>-0.48</v>
       </c>
       <c r="B110" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(0.9--5))-(-5+((-5*0.9)*(((-5--5)+(0.9--5))+0.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((0.9*(0.9-(-5/-5)))*(0.9-(0.9/(-5*0.9))))-(-5/-5)))))</f>
-        <v>-12.275</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.48))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.1090170589950092</v>
       </c>
       <c r="C110" t="n" s="0">
-        <v>-12.274999999999999</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n" s="0">
-        <v>1.0</v>
+        <v>-0.47</v>
       </c>
       <c r="B111" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(1--5))-(-5+((-5*1)*(((-5--5)+(1--5))+1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((1*(1-(-5/-5)))*(1-(1/(-5*1))))-(-5/-5)))))</f>
-        <v>-11.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.47))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.1179099491574238</v>
       </c>
       <c r="C111" t="n" s="0">
-        <v>-11.0</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n" s="0">
-        <v>1.1</v>
+        <v>-0.46</v>
       </c>
       <c r="B112" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(1.1--5))-(-5+((-5*1.1)*(((-5--5)+(1.1--5))+1.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((1.1*(1.1-(-5/-5)))*(1.1-(1.1/(-5*1.1))))-(-5/-5)))))</f>
-        <v>-9.465</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.46))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.1268481275709723</v>
       </c>
       <c r="C112" t="n" s="0">
-        <v>-9.464999999999998</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n" s="0">
-        <v>1.2</v>
+        <v>-0.45</v>
       </c>
       <c r="B113" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(1.2--5))-(-5+((-5*1.2)*(((-5--5)+(1.2--5))+1.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((1.2*(1.2-(-5/-5)))*(1.2-(1.2/(-5*1.2))))-(-5/-5)))))</f>
-        <v>-7.640000000000001</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.45))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.135830700425262</v>
       </c>
       <c r="C113" t="n" s="0">
-        <v>-7.640000000000001</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n" s="0">
-        <v>1.3</v>
+        <v>-0.44</v>
       </c>
       <c r="B114" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(1.3--5))-(-5+((-5*1.3)*(((-5--5)+(1.3--5))+1.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((1.3*(1.3-(-5/-5)))*(1.3-(1.3/(-5*1.3))))-(-5/-5)))))</f>
-        <v>-5.4950000000000205</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.44))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.1448567694704925</v>
       </c>
       <c r="C114" t="n" s="0">
-        <v>-5.495000000000001</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n" s="0">
-        <v>1.4</v>
+        <v>-0.43</v>
       </c>
       <c r="B115" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(1.4--5))-(-5+((-5*1.4)*(((-5--5)+(1.4--5))+1.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((1.4*(1.4-(-5/-5)))*(1.4-(1.4/(-5*1.4))))-(-5/-5)))))</f>
-        <v>-2.99999999999998</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.43))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.1539254321072814</v>
       </c>
       <c r="C115" t="n" s="0">
-        <v>-3.0000000000000036</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n" s="0">
-        <v>1.5</v>
+        <v>-0.42</v>
       </c>
       <c r="B116" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(1.5--5))-(-5+((-5*1.5)*(((-5--5)+(1.5--5))+1.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((1.5*(1.5-(-5/-5)))*(1.5-(1.5/(-5*1.5))))-(-5/-5)))))</f>
-        <v>-0.12499999999998046</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.42))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.1630357814769219</v>
       </c>
       <c r="C116" t="n" s="0">
-        <v>-0.125</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n" s="0">
-        <v>1.6</v>
+        <v>-0.41</v>
       </c>
       <c r="B117" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(1.6--5))-(-5+((-5*1.6)*(((-5--5)+(1.6--5))+1.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((1.6*(1.6-(-5/-5)))*(1.6-(1.6/(-5*1.6))))-(-5/-5)))))</f>
-        <v>3.1599999999999806</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.41))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.1721869065520691</v>
       </c>
       <c r="C117" t="n" s="0">
-        <v>3.1600000000000037</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n" s="0">
-        <v>1.7</v>
+        <v>-0.4</v>
       </c>
       <c r="B118" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(1.7--5))-(-5+((-5*1.7)*(((-5--5)+(1.7--5))+1.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((1.7*(1.7-(-5/-5)))*(1.7-(1.7/(-5*1.7))))-(-5/-5)))))</f>
-        <v>6.885</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.4))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.1813778922278415</v>
       </c>
       <c r="C118" t="n" s="0">
-        <v>6.884999999999998</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n" s="0">
-        <v>1.8</v>
+        <v>-0.39</v>
       </c>
       <c r="B119" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(1.8--5))-(-5+((-5*1.8)*(((-5--5)+(1.8--5))+1.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((1.8*(1.8-(-5/-5)))*(1.8-(1.8/(-5*1.8))))-(-5/-5)))))</f>
-        <v>11.079999999999998</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.39))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.1906078194133307</v>
       </c>
       <c r="C119" t="n" s="0">
-        <v>11.080000000000005</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n" s="0">
-        <v>1.9</v>
+        <v>-0.38</v>
       </c>
       <c r="B120" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(1.9--5))-(-5+((-5*1.9)*(((-5--5)+(1.9--5))+1.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((1.9*(1.9-(-5/-5)))*(1.9-(1.9/(-5*1.9))))-(-5/-5)))))</f>
-        <v>15.774999999999999</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.38))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.1998757651235095</v>
       </c>
       <c r="C120" t="n" s="0">
-        <v>15.774999999999991</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n" s="0">
-        <v>2.0</v>
+        <v>-0.37</v>
       </c>
       <c r="B121" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(2--5))-(-5+((-5*2)*(((-5--5)+(2--5))+2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((2*(2-(-5/-5)))*(2-(2/(-5*2))))-(-5/-5)))))</f>
-        <v>21.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.37))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.20918080257153</v>
       </c>
       <c r="C121" t="n" s="0">
-        <v>21.0</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n" s="0">
-        <v>2.1</v>
+        <v>-0.36</v>
       </c>
       <c r="B122" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(2.1--5))-(-5+((-5*2.1)*(((-5--5)+(2.1--5))+2.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((2.1*(2.1-(-5/-5)))*(2.1-(2.1/(-5*2.1))))-(-5/-5)))))</f>
-        <v>26.785000000000004</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.36))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.2185220012614022</v>
       </c>
       <c r="C122" t="n" s="0">
-        <v>26.78500000000001</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n" s="0">
-        <v>2.2</v>
+        <v>-0.35</v>
       </c>
       <c r="B123" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(2.2--5))-(-5+((-5*2.2)*(((-5--5)+(2.2--5))+2.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((2.2*(2.2-(-5/-5)))*(2.2-(2.2/(-5*2.2))))-(-5/-5)))))</f>
-        <v>33.16</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.35))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.2278984270810407</v>
       </c>
       <c r="C123" t="n" s="0">
-        <v>33.16000000000002</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n" s="0">
-        <v>2.3</v>
+        <v>-0.34</v>
       </c>
       <c r="B124" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(2.3--5))-(-5+((-5*2.3)*(((-5--5)+(2.3--5))+2.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((2.3*(2.3-(-5/-5)))*(2.3-(2.3/(-5*2.3))))-(-5/-5)))))</f>
-        <v>40.155</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.34))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.2373091423956777</v>
       </c>
       <c r="C124" t="n" s="0">
-        <v>40.154999999999994</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n" s="0">
-        <v>2.4</v>
+        <v>-0.33</v>
       </c>
       <c r="B125" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(2.4--5))-(-5+((-5*2.4)*(((-5--5)+(2.4--5))+2.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((2.4*(2.4-(-5/-5)))*(2.4-(2.4/(-5*2.4))))-(-5/-5)))))</f>
-        <v>47.8</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.33))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.2467532061416238</v>
       </c>
       <c r="C125" t="n" s="0">
-        <v>47.8</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n" s="0">
-        <v>2.5</v>
+        <v>-0.32</v>
       </c>
       <c r="B126" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(2.5--5))-(-5+((-5*2.5)*(((-5--5)+(2.5--5))+2.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((2.5*(2.5-(-5/-5)))*(2.5-(2.5/(-5*2.5))))-(-5/-5)))))</f>
-        <v>56.125</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.32))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.2562296739203744</v>
       </c>
       <c r="C126" t="n" s="0">
-        <v>56.125</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n" s="0">
-        <v>2.6</v>
+        <v>-0.31</v>
       </c>
       <c r="B127" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(2.6--5))-(-5+((-5*2.6)*(((-5--5)+(2.6--5))+2.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((2.6*(2.6-(-5/-5)))*(2.6-(2.6/(-5*2.6))))-(-5/-5)))))</f>
-        <v>65.16</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.31))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.2657375980930485</v>
       </c>
       <c r="C127" t="n" s="0">
-        <v>65.16</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n" s="0">
-        <v>2.7</v>
+        <v>-0.3</v>
       </c>
       <c r="B128" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(2.7--5))-(-5+((-5*2.7)*(((-5--5)+(2.7--5))+2.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((2.7*(2.7-(-5/-5)))*(2.7-(2.7/(-5*2.7))))-(-5/-5)))))</f>
-        <v>74.935</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.3))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.2752760278751525</v>
       </c>
       <c r="C128" t="n" s="0">
-        <v>74.93500000000003</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n" s="0">
-        <v>2.8</v>
+        <v>-0.29</v>
       </c>
       <c r="B129" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(2.8--5))-(-5+((-5*2.8)*(((-5--5)+(2.8--5))+2.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((2.8*(2.8-(-5/-5)))*(2.8-(2.8/(-5*2.8))))-(-5/-5)))))</f>
-        <v>85.47999999999999</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.29))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.2848440094316564</v>
       </c>
       <c r="C129" t="n" s="0">
-        <v>85.47999999999999</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n" s="0">
-        <v>2.9</v>
+        <v>-0.28</v>
       </c>
       <c r="B130" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(2.9--5))-(-5+((-5*2.9)*(((-5--5)+(2.9--5))+2.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((2.9*(2.9-(-5/-5)))*(2.9-(2.9/(-5*2.9))))-(-5/-5)))))</f>
-        <v>96.825</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.28))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.2944405859723784</v>
       </c>
       <c r="C130" t="n" s="0">
-        <v>96.825</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n" s="0">
-        <v>3.0</v>
+        <v>-0.27</v>
       </c>
       <c r="B131" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(3--5))-(-5+((-5*3)*(((-5--5)+(3--5))+3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((3*(3-(-5/-5)))*(3-(3/(-5*3))))-(-5/-5)))))</f>
-        <v>109.0000000000002</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.27))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.304064797847661</v>
       </c>
       <c r="C131" t="n" s="0">
-        <v>109.0</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n" s="0">
-        <v>3.1</v>
+        <v>-0.26</v>
       </c>
       <c r="B132" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(3.1--5))-(-5+((-5*3.1)*(((-5--5)+(3.1--5))+3.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((3.1*(3.1-(-5/-5)))*(3.1-(3.1/(-5*3.1))))-(-5/-5)))))</f>
-        <v>122.03500000000001</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.26))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.313715682644337</v>
       </c>
       <c r="C132" t="n" s="0">
-        <v>122.03500000000003</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n" s="0">
-        <v>3.2</v>
+        <v>-0.25</v>
       </c>
       <c r="B133" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(3.2--5))-(-5+((-5*3.2)*(((-5--5)+(3.2--5))+3.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((3.2*(3.2-(-5/-5)))*(3.2-(3.2/(-5*3.2))))-(-5/-5)))))</f>
-        <v>135.96</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.25))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.3233922752819691</v>
       </c>
       <c r="C133" t="n" s="0">
-        <v>135.96</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n" s="0">
-        <v>3.3</v>
+        <v>-0.24</v>
       </c>
       <c r="B134" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(3.3--5))-(-5+((-5*3.3)*(((-5--5)+(3.3--5))+3.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((3.3*(3.3-(-5/-5)))*(3.3-(3.3/(-5*3.3))))-(-5/-5)))))</f>
-        <v>150.805</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.24))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.3330936081093574</v>
       </c>
       <c r="C134" t="n" s="0">
-        <v>150.805</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n" s="0">
-        <v>3.4</v>
+        <v>-0.23</v>
       </c>
       <c r="B135" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(3.4--5))-(-5+((-5*3.4)*(((-5--5)+(3.4--5))+3.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((3.4*(3.4-(-5/-5)))*(3.4-(3.4/(-5*3.4))))-(-5/-5)))))</f>
-        <v>166.6</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.23))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.3428187110013037</v>
       </c>
       <c r="C135" t="n" s="0">
-        <v>166.59999999999997</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n" s="0">
-        <v>3.5</v>
+        <v>-0.22</v>
       </c>
       <c r="B136" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(3.5--5))-(-5+((-5*3.5)*(((-5--5)+(3.5--5))+3.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((3.5*(3.5-(-5/-5)))*(3.5-(3.5/(-5*3.5))))-(-5/-5)))))</f>
-        <v>183.375</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.22))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.3525666114556227</v>
       </c>
       <c r="C136" t="n" s="0">
-        <v>183.375</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n" s="0">
-        <v>3.6</v>
+        <v>-0.21</v>
       </c>
       <c r="B137" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(3.6--5))-(-5+((-5*3.6)*(((-5--5)+(3.6--5))+3.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((3.6*(3.6-(-5/-5)))*(3.6-(3.6/(-5*3.6))))-(-5/-5)))))</f>
-        <v>201.16</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.21))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.3623363346903925</v>
       </c>
       <c r="C137" t="n" s="0">
-        <v>201.16000000000003</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n" s="0">
-        <v>3.7</v>
+        <v>-0.2</v>
       </c>
       <c r="B138" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(3.7--5))-(-5+((-5*3.7)*(((-5--5)+(3.7--5))+3.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((3.7*(3.7-(-5/-5)))*(3.7-(3.7/(-5*3.7))))-(-5/-5)))))</f>
-        <v>219.985</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.2))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.3721269037414308</v>
       </c>
       <c r="C138" t="n" s="0">
-        <v>219.98500000000004</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n" s="0">
-        <v>3.8</v>
+        <v>-0.19</v>
       </c>
       <c r="B139" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(3.8--5))-(-5+((-5*3.8)*(((-5--5)+(3.8--5))+3.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((3.8*(3.8-(-5/-5)))*(3.8-(3.8/(-5*3.8))))-(-5/-5)))))</f>
-        <v>239.88</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.19))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.3819373395599914</v>
       </c>
       <c r="C139" t="n" s="0">
-        <v>239.87999999999994</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n" s="0">
-        <v>3.9</v>
+        <v>-0.18</v>
       </c>
       <c r="B140" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(3.9--5))-(-5+((-5*3.9)*(((-5--5)+(3.9--5))+3.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((3.9*(3.9-(-5/-5)))*(3.9-(3.9/(-5*3.9))))-(-5/-5)))))</f>
-        <v>260.875</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.18))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.391766661110668</v>
       </c>
       <c r="C140" t="n" s="0">
-        <v>260.87499999999994</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n" s="0">
-        <v>4.0</v>
+        <v>-0.17</v>
       </c>
       <c r="B141" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(4--5))-(-5+((-5*4)*(((-5--5)+(4--5))+4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((4*(4-(-5/-5)))*(4-(4/(-5*4))))-(-5/-5)))))</f>
-        <v>283.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.17))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.4016138854694962</v>
       </c>
       <c r="C141" t="n" s="0">
-        <v>283.0</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n" s="0">
-        <v>4.1</v>
+        <v>-0.16</v>
       </c>
       <c r="B142" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(4.1--5))-(-5+((-5*4.1)*(((-5--5)+(4.1--5))+4.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((4.1*(4.1-(-5/-5)))*(4.1-(4.1/(-5*4.1))))-(-5/-5)))))</f>
-        <v>306.28500000000037</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.16))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.411478027922246</v>
       </c>
       <c r="C142" t="n" s="0">
-        <v>306.2849999999999</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n" s="0">
-        <v>4.2</v>
+        <v>-0.15</v>
       </c>
       <c r="B143" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(4.2--5))-(-5+((-5*4.2)*(((-5--5)+(4.2--5))+4.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((4.2*(4.2-(-5/-5)))*(4.2-(4.2/(-5*4.2))))-(-5/-5)))))</f>
-        <v>330.7599999999998</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.15))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.421358102062893</v>
       </c>
       <c r="C143" t="n" s="0">
-        <v>330.7600000000001</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n" s="0">
-        <v>4.3</v>
+        <v>-0.14</v>
       </c>
       <c r="B144" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(4.3--5))-(-5+((-5*4.3)*(((-5--5)+(4.3--5))+4.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((4.3*(4.3-(-5/-5)))*(4.3-(4.3/(-5*4.3))))-(-5/-5)))))</f>
-        <v>356.455</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.14))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.4312531198922556</v>
       </c>
       <c r="C144" t="n" s="0">
-        <v>356.4549999999999</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n" s="0">
-        <v>4.4</v>
+        <v>-0.13</v>
       </c>
       <c r="B145" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(4.4--5))-(-5+((-5*4.4)*(((-5--5)+(4.4--5))+4.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((4.4*(4.4-(-5/-5)))*(4.4-(4.4/(-5*4.4))))-(-5/-5)))))</f>
-        <v>383.4</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.13))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.4411620919167971</v>
       </c>
       <c r="C145" t="n" s="0">
-        <v>383.4000000000001</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n" s="0">
-        <v>4.5</v>
+        <v>-0.12</v>
       </c>
       <c r="B146" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(4.5--5))-(-5+((-5*4.5)*(((-5--5)+(4.5--5))+4.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((4.5*(4.5-(-5/-5)))*(4.5-(4.5/(-5*4.5))))-(-5/-5)))))</f>
-        <v>411.625</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.12))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.4510840272475727</v>
       </c>
       <c r="C146" t="n" s="0">
-        <v>411.625</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n" s="0">
-        <v>4.6</v>
+        <v>-0.11</v>
       </c>
       <c r="B147" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(4.6--5))-(-5+((-5*4.6)*(((-5--5)+(4.6--5))+4.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((4.6*(4.6-(-5/-5)))*(4.6-(4.6/(-5*4.6))))-(-5/-5)))))</f>
-        <v>441.15999999999997</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.11))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.4610179336993174</v>
       </c>
       <c r="C147" t="n" s="0">
-        <v>441.15999999999997</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n" s="0">
-        <v>4.7</v>
+        <v>-0.1</v>
       </c>
       <c r="B148" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(4.7--5))-(-5+((-5*4.7)*(((-5--5)+(4.7--5))+4.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((4.7*(4.7-(-5/-5)))*(4.7-(4.7/(-5*4.7))))-(-5/-5)))))</f>
-        <v>472.035</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.1))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.4709628178896639</v>
       </c>
       <c r="C148" t="n" s="0">
-        <v>472.035</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n" s="0">
-        <v>4.8</v>
+        <v>-0.09</v>
       </c>
       <c r="B149" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(4.8--5))-(-5+((-5*4.8)*(((-5--5)+(4.8--5))+4.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((4.8*(4.8-(-5/-5)))*(4.8-(4.8/(-5*4.8))))-(-5/-5)))))</f>
-        <v>504.2799999999998</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.09))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.480917685338481</v>
       </c>
       <c r="C149" t="n" s="0">
-        <v>504.28</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n" s="0">
-        <v>4.9</v>
+        <v>-0.08</v>
       </c>
       <c r="B150" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(4.9--5))-(-5+((-5*4.9)*(((-5--5)+(4.9--5))+4.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((4.9*(4.9-(-5/-5)))*(4.9-(4.9/(-5*4.9))))-(-5/-5)))))</f>
-        <v>537.925</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.08))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.4908815405673195</v>
       </c>
       <c r="C150" t="n" s="0">
-        <v>537.9250000000002</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n" s="0">
-        <v>5.0</v>
+        <v>-0.07</v>
       </c>
       <c r="B151" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(5--5))-(-5+((-5*5)*(((-5--5)+(5--5))+5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((5*(5-(-5/-5)))*(5-(5/(-5*5))))-(-5/-5)))))</f>
-        <v>572.9999999999998</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.07))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.5008533871989593</v>
       </c>
       <c r="C151" t="n" s="0">
-        <v>573.0</v>
+        <v>-0.07</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n" s="0">
-        <v>5.1</v>
+        <v>-0.06</v>
       </c>
       <c r="B152" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(5.1--5))-(-5+((-5*5.1)*(((-5--5)+(5.1--5))+5.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((5.1*(5.1-(-5/-5)))*(5.1-(5.1/(-5*5.1))))-(-5/-5)))))</f>
-        <v>609.5349999999999</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.06))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.5108322280570474</v>
       </c>
       <c r="C152" t="n" s="0">
-        <v>609.5349999999999</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n" s="0">
-        <v>5.2</v>
+        <v>-0.05</v>
       </c>
       <c r="B153" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(5.2--5))-(-5+((-5*5.2)*(((-5--5)+(5.2--5))+5.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((5.2*(5.2-(-5/-5)))*(5.2-(5.2/(-5*5.2))))-(-5/-5)))))</f>
-        <v>647.56</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.05))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.5208170652658137</v>
       </c>
       <c r="C153" t="n" s="0">
-        <v>647.56</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n" s="0">
-        <v>5.3</v>
+        <v>-0.04</v>
       </c>
       <c r="B154" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(5.3--5))-(-5+((-5*5.3)*(((-5--5)+(5.3--5))+5.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((5.3*(5.3-(-5/-5)))*(5.3-(5.3/(-5*5.3))))-(-5/-5)))))</f>
-        <v>687.1050000000002</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.04))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.530806900349858</v>
       </c>
       <c r="C154" t="n" s="0">
-        <v>687.1049999999999</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n" s="0">
-        <v>5.4</v>
+        <v>-0.03</v>
       </c>
       <c r="B155" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(5.4--5))-(-5+((-5*5.4)*(((-5--5)+(5.4--5))+5.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((5.4*(5.4-(-5/-5)))*(5.4-(5.4/(-5*5.4))))-(-5/-5)))))</f>
-        <v>728.1999999999999</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.03))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.5408007343339964</v>
       </c>
       <c r="C155" t="n" s="0">
-        <v>728.2000000000002</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n" s="0">
-        <v>5.5</v>
+        <v>-0.02</v>
       </c>
       <c r="B156" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(5.5--5))-(-5+((-5*5.5)*(((-5--5)+(5.5--5))+5.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((5.5*(5.5-(-5/-5)))*(5.5-(5.5/(-5*5.5))))-(-5/-5)))))</f>
-        <v>770.875</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.02))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.550797567843159</v>
       </c>
       <c r="C156" t="n" s="0">
-        <v>770.875</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n" s="0">
-        <v>5.6</v>
+        <v>-0.01</v>
       </c>
       <c r="B157" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(5.6--5))-(-5+((-5*5.6)*(((-5--5)+(5.6--5))+5.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((5.6*(5.6-(-5/-5)))*(5.6-(5.6/(-5*5.6))))-(-5/-5)))))</f>
-        <v>815.16</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(-0.01))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.5607964012023254</v>
       </c>
       <c r="C157" t="n" s="0">
-        <v>815.1599999999997</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n" s="0">
-        <v>5.7</v>
+        <v>0.0</v>
       </c>
       <c r="B158" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(5.7--5))-(-5+((-5*5.7)*(((-5--5)+(5.7--5))+5.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((5.7*(5.7-(-5/-5)))*(5.7-(5.7/(-5*5.7))))-(-5/-5)))))</f>
-        <v>861.0849999999999</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.570796234536492</v>
       </c>
       <c r="C158" t="n" s="0">
-        <v>861.085</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n" s="0">
-        <v>5.8</v>
+        <v>0.01</v>
       </c>
       <c r="B159" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(5.8--5))-(-5+((-5*5.8)*(((-5--5)+(5.8--5))+5.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((5.8*(5.8-(-5/-5)))*(5.8-(5.8/(-5*5.8))))-(-5/-5)))))</f>
-        <v>908.6800000000001</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.01))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.5807960678706587</v>
       </c>
       <c r="C159" t="n" s="0">
-        <v>908.68</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n" s="0">
-        <v>5.9</v>
+        <v>0.02</v>
       </c>
       <c r="B160" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(5.9--5))-(-5+((-5*5.9)*(((-5--5)+(5.9--5))+5.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((5.9*(5.9-(-5/-5)))*(5.9-(5.9/(-5*5.9))))-(-5/-5)))))</f>
-        <v>957.9749999999996</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.02))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.5907949012298253</v>
       </c>
       <c r="C160" t="n" s="0">
-        <v>957.9750000000003</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n" s="0">
-        <v>6.0</v>
+        <v>0.03</v>
       </c>
       <c r="B161" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(6--5))-(-5+((-5*6)*(((-5--5)+(6--5))+6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((6*(6-(-5/-5)))*(6-(6/(-5*6))))-(-5/-5)))))</f>
-        <v>1009.0000000000002</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.03))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.600791734738988</v>
       </c>
       <c r="C161" t="n" s="0">
-        <v>1009.0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n" s="0">
-        <v>6.1</v>
+        <v>0.04</v>
       </c>
       <c r="B162" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(6.1--5))-(-5+((-5*6.1)*(((-5--5)+(6.1--5))+6.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((6.1*(6.1-(-5/-5)))*(6.1-(6.1/(-5*6.1))))-(-5/-5)))))</f>
-        <v>1061.7850000000005</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.04))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.6107855687231263</v>
       </c>
       <c r="C162" t="n" s="0">
-        <v>1061.7849999999996</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n" s="0">
-        <v>6.2</v>
+        <v>0.05</v>
       </c>
       <c r="B163" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(6.2--5))-(-5+((-5*6.2)*(((-5--5)+(6.2--5))+6.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((6.2*(6.2-(-5/-5)))*(6.2-(6.2/(-5*6.2))))-(-5/-5)))))</f>
-        <v>1116.3600000000006</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.05))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.6207754038071704</v>
       </c>
       <c r="C163" t="n" s="0">
-        <v>1116.36</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n" s="0">
-        <v>6.3</v>
+        <v>0.06</v>
       </c>
       <c r="B164" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(6.3--5))-(-5+((-5*6.3)*(((-5--5)+(6.3--5))+6.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((6.3*(6.3-(-5/-5)))*(6.3-(6.3/(-5*6.3))))-(-5/-5)))))</f>
-        <v>1172.7549999999999</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.06))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.630760241015937</v>
       </c>
       <c r="C164" t="n" s="0">
-        <v>1172.755</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n" s="0">
-        <v>6.4</v>
+        <v>0.07</v>
       </c>
       <c r="B165" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(6.4--5))-(-5+((-5*6.4)*(((-5--5)+(6.4--5))+6.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((6.4*(6.4-(-5/-5)))*(6.4-(6.4/(-5*6.4))))-(-5/-5)))))</f>
-        <v>1231.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.07))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.6407390818740248</v>
       </c>
       <c r="C165" t="n" s="0">
-        <v>1231.0000000000002</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n" s="0">
-        <v>6.5</v>
+        <v>0.08</v>
       </c>
       <c r="B166" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(6.5--5))-(-5+((-5*6.5)*(((-5--5)+(6.5--5))+6.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((6.5*(6.5-(-5/-5)))*(6.5-(6.5/(-5*6.5))))-(-5/-5)))))</f>
-        <v>1291.125</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.08))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.650710928505665</v>
       </c>
       <c r="C166" t="n" s="0">
-        <v>1291.125</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n" s="0">
-        <v>6.6</v>
+        <v>0.09</v>
       </c>
       <c r="B167" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(6.6--5))-(-5+((-5*6.6)*(((-5--5)+(6.6--5))+6.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((6.6*(6.6-(-5/-5)))*(6.6-(6.6/(-5*6.6))))-(-5/-5)))))</f>
-        <v>1353.16</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.09))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.6606747837345033</v>
       </c>
       <c r="C167" t="n" s="0">
-        <v>1353.16</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n" s="0">
-        <v>6.7</v>
+        <v>0.1</v>
       </c>
       <c r="B168" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(6.7--5))-(-5+((-5*6.7)*(((-5--5)+(6.7--5))+6.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((6.7*(6.7-(-5/-5)))*(6.7-(6.7/(-5*6.7))))-(-5/-5)))))</f>
-        <v>1417.135</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.1))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.6706296511833205</v>
       </c>
       <c r="C168" t="n" s="0">
-        <v>1417.135</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n" s="0">
-        <v>6.8</v>
+        <v>0.11</v>
       </c>
       <c r="B169" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(6.8--5))-(-5+((-5*6.8)*(((-5--5)+(6.8--5))+6.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((6.8*(6.8-(-5/-5)))*(6.8-(6.8/(-5*6.8))))-(-5/-5)))))</f>
-        <v>1483.0800000000002</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.11))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.6805745353736672</v>
       </c>
       <c r="C169" t="n" s="0">
-        <v>1483.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n" s="0">
-        <v>6.9</v>
+        <v>0.12</v>
       </c>
       <c r="B170" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(6.9--5))-(-5+((-5*6.9)*(((-5--5)+(6.9--5))+6.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((6.9*(6.9-(-5/-5)))*(6.9-(6.9/(-5*6.9))))-(-5/-5)))))</f>
-        <v>1551.0249999999999</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.12))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.6905084418254117</v>
       </c>
       <c r="C170" t="n" s="0">
-        <v>1551.0250000000003</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n" s="0">
-        <v>7.0</v>
+        <v>0.13</v>
       </c>
       <c r="B171" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(7--5))-(-5+((-5*7)*(((-5--5)+(7--5))+7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((7*(7-(-5/-5)))*(7-(7/(-5*7))))-(-5/-5)))))</f>
-        <v>1621.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.13))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.700430377156187</v>
       </c>
       <c r="C171" t="n" s="0">
-        <v>1621.0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n" s="0">
-        <v>7.1</v>
+        <v>0.14</v>
       </c>
       <c r="B172" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(7.1--5))-(-5+((-5*7.1)*(((-5--5)+(7.1--5))+7.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((7.1*(7.1-(-5/-5)))*(7.1-(7.1/(-5*7.1))))-(-5/-5)))))</f>
-        <v>1693.035</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.14))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.7103393491807286</v>
       </c>
       <c r="C172" t="n" s="0">
-        <v>1693.0349999999999</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n" s="0">
-        <v>7.2</v>
+        <v>0.15</v>
       </c>
       <c r="B173" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(7.2--5))-(-5+((-5*7.2)*(((-5--5)+(7.2--5))+7.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((7.2*(7.2-(-5/-5)))*(7.2-(7.2/(-5*7.2))))-(-5/-5)))))</f>
-        <v>1767.16</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.15))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.7202343670100912</v>
       </c>
       <c r="C173" t="n" s="0">
-        <v>1767.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n" s="0">
-        <v>7.3</v>
+        <v>0.16</v>
       </c>
       <c r="B174" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(7.3--5))-(-5+((-5*7.3)*(((-5--5)+(7.3--5))+7.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((7.3*(7.3-(-5/-5)))*(7.3-(7.3/(-5*7.3))))-(-5/-5)))))</f>
-        <v>1843.405</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.16))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.730114441150738</v>
       </c>
       <c r="C174" t="n" s="0">
-        <v>1843.4050000000002</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n" s="0">
-        <v>7.4</v>
+        <v>0.17</v>
       </c>
       <c r="B175" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(7.4--5))-(-5+((-5*7.4)*(((-5--5)+(7.4--5))+7.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((7.4*(7.4-(-5/-5)))*(7.4-(7.4/(-5*7.4))))-(-5/-5)))))</f>
-        <v>1921.8000000000002</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.17))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.739978583603488</v>
       </c>
       <c r="C175" t="n" s="0">
-        <v>1921.8000000000004</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n" s="0">
-        <v>7.5</v>
+        <v>0.18</v>
       </c>
       <c r="B176" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(7.5--5))-(-5+((-5*7.5)*(((-5--5)+(7.5--5))+7.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((7.5*(7.5-(-5/-5)))*(7.5-(7.5/(-5*7.5))))-(-5/-5)))))</f>
-        <v>2002.375</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.18))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.7498258079623166</v>
       </c>
       <c r="C176" t="n" s="0">
-        <v>2002.375</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n" s="0">
-        <v>7.6</v>
+        <v>0.19</v>
       </c>
       <c r="B177" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(7.6--5))-(-5+((-5*7.6)*(((-5--5)+(7.6--5))+7.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((7.6*(7.6-(-5/-5)))*(7.6-(7.6/(-5*7.6))))-(-5/-5)))))</f>
-        <v>2085.16</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.19))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.7596551295129927</v>
       </c>
       <c r="C177" t="n" s="0">
-        <v>2085.16</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n" s="0">
-        <v>7.7</v>
+        <v>0.2</v>
       </c>
       <c r="B178" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(7.7--5))-(-5+((-5*7.7)*(((-5--5)+(7.7--5))+7.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((7.7*(7.7-(-5/-5)))*(7.7-(7.7/(-5*7.7))))-(-5/-5)))))</f>
-        <v>2170.185</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.2))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.7694655653315534</v>
       </c>
       <c r="C178" t="n" s="0">
-        <v>2170.185</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n" s="0">
-        <v>7.8</v>
+        <v>0.21</v>
       </c>
       <c r="B179" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(7.8--5))-(-5+((-5*7.8)*(((-5--5)+(7.8--5))+7.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((7.8*(7.8-(-5/-5)))*(7.8-(7.8/(-5*7.8))))-(-5/-5)))))</f>
-        <v>2257.48</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.21))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.779256134382592</v>
       </c>
       <c r="C179" t="n" s="0">
-        <v>2257.48</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n" s="0">
-        <v>7.9</v>
+        <v>0.22</v>
       </c>
       <c r="B180" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(7.9--5))-(-5+((-5*7.9)*(((-5--5)+(7.9--5))+7.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((7.9*(7.9-(-5/-5)))*(7.9-(7.9/(-5*7.9))))-(-5/-5)))))</f>
-        <v>2347.0750000000003</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.22))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.7890258576173617</v>
       </c>
       <c r="C180" t="n" s="0">
-        <v>2347.075</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n" s="0">
-        <v>8.0</v>
+        <v>0.23</v>
       </c>
       <c r="B181" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(8--5))-(-5+((-5*8)*(((-5--5)+(8--5))+8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((8*(8-(-5/-5)))*(8-(8/(-5*8))))-(-5/-5)))))</f>
-        <v>2439.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.23))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.7987737580716807</v>
       </c>
       <c r="C181" t="n" s="0">
-        <v>2439.0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n" s="0">
-        <v>8.1</v>
+        <v>0.24</v>
       </c>
       <c r="B182" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(8.1--5))-(-5+((-5*8.1)*(((-5--5)+(8.1--5))+8.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((8.1*(8.1-(-5/-5)))*(8.1-(8.1/(-5*8.1))))-(-5/-5)))))</f>
-        <v>2533.285</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.24))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.8084988609636268</v>
       </c>
       <c r="C182" t="n" s="0">
-        <v>2533.285</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n" s="0">
-        <v>8.2</v>
+        <v>0.25</v>
       </c>
       <c r="B183" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(8.2--5))-(-5+((-5*8.2)*(((-5--5)+(8.2--5))+8.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((8.2*(8.2-(-5/-5)))*(8.2-(8.2/(-5*8.2))))-(-5/-5)))))</f>
-        <v>2629.96</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.25))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.8182001937910153</v>
       </c>
       <c r="C183" t="n" s="0">
-        <v>2629.959999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n" s="0">
-        <v>8.3</v>
+        <v>0.26</v>
       </c>
       <c r="B184" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(8.3--5))-(-5+((-5*8.3)*(((-5--5)+(8.3--5))+8.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((8.3*(8.3-(-5/-5)))*(8.3-(8.3/(-5*8.3))))-(-5/-5)))))</f>
-        <v>2729.055</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.26))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.8278767864286474</v>
       </c>
       <c r="C184" t="n" s="0">
-        <v>2729.0550000000007</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n" s="0">
-        <v>8.4</v>
+        <v>0.27</v>
       </c>
       <c r="B185" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(8.4--5))-(-5+((-5*8.4)*(((-5--5)+(8.4--5))+8.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((8.4*(8.4-(-5/-5)))*(8.4-(8.4/(-5*8.4))))-(-5/-5)))))</f>
-        <v>2830.6</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.27))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.8375276712253235</v>
       </c>
       <c r="C185" t="n" s="0">
-        <v>2830.6000000000004</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n" s="0">
-        <v>8.5</v>
+        <v>0.28</v>
       </c>
       <c r="B186" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(8.5--5))-(-5+((-5*8.5)*(((-5--5)+(8.5--5))+8.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((8.5*(8.5-(-5/-5)))*(8.5-(8.5/(-5*8.5))))-(-5/-5)))))</f>
-        <v>2934.625</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.28))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.8471518831006057</v>
       </c>
       <c r="C186" t="n" s="0">
-        <v>2934.625</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n" s="0">
-        <v>8.6</v>
+        <v>0.29</v>
       </c>
       <c r="B187" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(8.6--5))-(-5+((-5*8.6)*(((-5--5)+(8.6--5))+8.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((8.6*(8.6-(-5/-5)))*(8.6-(8.6/(-5*8.6))))-(-5/-5)))))</f>
-        <v>3041.1600000000003</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.29))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.8567484596413277</v>
       </c>
       <c r="C187" t="n" s="0">
-        <v>3041.16</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n" s="0">
-        <v>8.7</v>
+        <v>0.3</v>
       </c>
       <c r="B188" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(8.7--5))-(-5+((-5*8.7)*(((-5--5)+(8.7--5))+8.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((8.7*(8.7-(-5/-5)))*(8.7-(8.7/(-5*8.7))))-(-5/-5)))))</f>
-        <v>3150.2349999999997</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.3))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.866316441197832</v>
       </c>
       <c r="C188" t="n" s="0">
-        <v>3150.2349999999988</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n" s="0">
-        <v>8.8</v>
+        <v>0.31</v>
       </c>
       <c r="B189" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(8.8--5))-(-5+((-5*8.8)*(((-5--5)+(8.8--5))+8.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((8.8*(8.8-(-5/-5)))*(8.8-(8.8/(-5*8.8))))-(-5/-5)))))</f>
-        <v>3261.88</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.31))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.8758548709799356</v>
       </c>
       <c r="C189" t="n" s="0">
-        <v>3261.880000000001</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n" s="0">
-        <v>8.9</v>
+        <v>0.32</v>
       </c>
       <c r="B190" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(8.9--5))-(-5+((-5*8.9)*(((-5--5)+(8.9--5))+8.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((8.9*(8.9-(-5/-5)))*(8.9-(8.9/(-5*8.9))))-(-5/-5)))))</f>
-        <v>3376.125</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.32))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.8853627951526097</v>
       </c>
       <c r="C190" t="n" s="0">
-        <v>3376.125</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n" s="0">
-        <v>9.0</v>
+        <v>0.33</v>
       </c>
       <c r="B191" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(9--5))-(-5+((-5*9)*(((-5--5)+(9--5))+9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((9*(9-(-5/-5)))*(9-(9/(-5*9))))-(-5/-5)))))</f>
-        <v>3493.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.33))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.8948392629313604</v>
       </c>
       <c r="C191" t="n" s="0">
-        <v>3493.0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n" s="0">
-        <v>9.1</v>
+        <v>0.34</v>
       </c>
       <c r="B192" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(9.1--5))-(-5+((-5*9.1)*(((-5--5)+(9.1--5))+9.1))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((9.1*(9.1-(-5/-5)))*(9.1-(9.1/(-5*9.1))))-(-5/-5)))))</f>
-        <v>3612.535</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.34))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.9042833266773065</v>
       </c>
       <c r="C192" t="n" s="0">
-        <v>3612.535</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n" s="0">
-        <v>9.2</v>
+        <v>0.35</v>
       </c>
       <c r="B193" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(9.2--5))-(-5+((-5*9.2)*(((-5--5)+(9.2--5))+9.2))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((9.2*(9.2-(-5/-5)))*(9.2-(9.2/(-5*9.2))))-(-5/-5)))))</f>
-        <v>3734.7599999999998</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.35))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.9136940419919437</v>
       </c>
       <c r="C193" t="n" s="0">
-        <v>3734.7599999999998</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n" s="0">
-        <v>9.3</v>
+        <v>0.36</v>
       </c>
       <c r="B194" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(9.3--5))-(-5+((-5*9.3)*(((-5--5)+(9.3--5))+9.3))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((9.3*(9.3-(-5/-5)))*(9.3-(9.3/(-5*9.3))))-(-5/-5)))))</f>
-        <v>3859.705000000002</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.36))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.923070467811582</v>
       </c>
       <c r="C194" t="n" s="0">
-        <v>3859.705000000001</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n" s="0">
-        <v>9.4</v>
+        <v>0.37</v>
       </c>
       <c r="B195" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(9.4--5))-(-5+((-5*9.4)*(((-5--5)+(9.4--5))+9.4))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((9.4*(9.4-(-5/-5)))*(9.4-(9.4/(-5*9.4))))-(-5/-5)))))</f>
-        <v>3987.4</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.37))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.9324116665014541</v>
       </c>
       <c r="C195" t="n" s="0">
-        <v>3987.3999999999996</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n" s="0">
-        <v>9.5</v>
+        <v>0.38</v>
       </c>
       <c r="B196" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(9.5--5))-(-5+((-5*9.5)*(((-5--5)+(9.5--5))+9.5))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((9.5*(9.5-(-5/-5)))*(9.5-(9.5/(-5*9.5))))-(-5/-5)))))</f>
-        <v>4117.875</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.38))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.9417167039494747</v>
       </c>
       <c r="C196" t="n" s="0">
-        <v>4117.875</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n" s="0">
-        <v>9.6</v>
+        <v>0.39</v>
       </c>
       <c r="B197" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(9.6--5))-(-5+((-5*9.6)*(((-5--5)+(9.6--5))+9.6))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((9.6*(9.6-(-5/-5)))*(9.6-(9.6/(-5*9.6))))-(-5/-5)))))</f>
-        <v>4251.159999999998</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.39))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.9509846496596537</v>
       </c>
       <c r="C197" t="n" s="0">
-        <v>4251.16</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n" s="0">
-        <v>9.7</v>
+        <v>0.4</v>
       </c>
       <c r="B198" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(9.7--5))-(-5+((-5*9.7)*(((-5--5)+(9.7--5))+9.7))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((9.7*(9.7-(-5/-5)))*(9.7-(9.7/(-5*9.7))))-(-5/-5)))))</f>
-        <v>4387.285</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.4))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.9602145768451429</v>
       </c>
       <c r="C198" t="n" s="0">
-        <v>4387.284999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n" s="0">
-        <v>9.8</v>
+        <v>0.41</v>
       </c>
       <c r="B199" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(9.8--5))-(-5+((-5*9.8)*(((-5--5)+(9.8--5))+9.8))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((9.8*(9.8-(-5/-5)))*(9.8-(9.8/(-5*9.8))))-(-5/-5)))))</f>
-        <v>4526.28</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.41))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.9694055625209153</v>
       </c>
       <c r="C199" t="n" s="0">
-        <v>4526.280000000001</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n" s="0">
-        <v>9.9</v>
+        <v>0.42</v>
       </c>
       <c r="B200" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(9.9--5))-(-5+((-5*9.9)*(((-5--5)+(9.9--5))+9.9))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((9.9*(9.9-(-5/-5)))*(9.9-(9.9/(-5*9.9))))-(-5/-5)))))</f>
-        <v>4668.175</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.42))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.9785566875960625</v>
       </c>
       <c r="C200" t="n" s="0">
-        <v>4668.175</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n" s="0">
-        <v>10.0</v>
+        <v>0.43</v>
       </c>
       <c r="B201" t="n" s="0">
-        <f>(-5-((((-5*(-5/((-5/(((-5*(10--5))-(-5+((-5*10)*(((-5--5)+(10--5))+10))))-(-5+-5)))*-5)))/-5)--5)+(-5*(((10*(10-(-5/-5)))*(10-(10/(-5*10))))-(-5/-5)))))</f>
-        <v>4813.0</v>
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.43))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.987667036965703</v>
       </c>
       <c r="C201" t="n" s="0">
-        <v>4813.0</v>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B202" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.44))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>1.9967356996024916</v>
+      </c>
+      <c r="C202" t="n" s="0">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n" s="0">
+        <v>0.45</v>
+      </c>
+      <c r="B203" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.45))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.0057617686477225</v>
+      </c>
+      <c r="C203" t="n" s="0">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B204" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.46))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.014744341502012</v>
+      </c>
+      <c r="C204" t="n" s="0">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n" s="0">
+        <v>0.47</v>
+      </c>
+      <c r="B205" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.47))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.0236825199155604</v>
+      </c>
+      <c r="C205" t="n" s="0">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B206" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.48))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.032575410077975</v>
+      </c>
+      <c r="C206" t="n" s="0">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n" s="0">
+        <v>0.49</v>
+      </c>
+      <c r="B207" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.49))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.04142212270765</v>
+      </c>
+      <c r="C207" t="n" s="0">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B208" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.5))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.050221773140695</v>
+      </c>
+      <c r="C208" t="n" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n" s="0">
+        <v>0.51</v>
+      </c>
+      <c r="B209" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.51))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.0589734814194</v>
+      </c>
+      <c r="C209" t="n" s="0">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B210" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.52))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.067676372380229</v>
+      </c>
+      <c r="C210" t="n" s="0">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n" s="0">
+        <v>0.53</v>
+      </c>
+      <c r="B211" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.53))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.076329575741339</v>
+      </c>
+      <c r="C211" t="n" s="0">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B212" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.54))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.0849322261896055</v>
+      </c>
+      <c r="C212" t="n" s="0">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n" s="0">
+        <v>0.55</v>
+      </c>
+      <c r="B213" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.55))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.0934834634671513</v>
+      </c>
+      <c r="C213" t="n" s="0">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B214" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.56))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.1019824324573757</v>
+      </c>
+      <c r="C214" t="n" s="0">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n" s="0">
+        <v>0.57</v>
+      </c>
+      <c r="B215" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.57))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.1104282832704615</v>
+      </c>
+      <c r="C215" t="n" s="0">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B216" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.58))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.1188201713283656</v>
+      </c>
+      <c r="C216" t="n" s="0">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n" s="0">
+        <v>0.59</v>
+      </c>
+      <c r="B217" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.59))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.127157257449276</v>
+      </c>
+      <c r="C217" t="n" s="0">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B218" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.6))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.1354387079315273</v>
+      </c>
+      <c r="C218" t="n" s="0">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n" s="0">
+        <v>0.61</v>
+      </c>
+      <c r="B219" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.61))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.1436636946369734</v>
+      </c>
+      <c r="C219" t="n" s="0">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B220" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.62))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.1518313950737973</v>
+      </c>
+      <c r="C220" t="n" s="0">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n" s="0">
+        <v>0.63</v>
+      </c>
+      <c r="B221" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.63))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.1599409924787616</v>
+      </c>
+      <c r="C221" t="n" s="0">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B222" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.64))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.167991675898884</v>
+      </c>
+      <c r="C222" t="n" s="0">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n" s="0">
+        <v>0.65</v>
+      </c>
+      <c r="B223" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.65))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.1759826402725317</v>
+      </c>
+      <c r="C223" t="n" s="0">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B224" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.66))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.183913086509926</v>
+      </c>
+      <c r="C224" t="n" s="0">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n" s="0">
+        <v>0.67</v>
+      </c>
+      <c r="B225" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.67))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.191782221573052</v>
+      </c>
+      <c r="C225" t="n" s="0">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B226" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.68))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.1995892585549606</v>
+      </c>
+      <c r="C226" t="n" s="0">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n" s="0">
+        <v>0.69</v>
+      </c>
+      <c r="B227" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.69))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.20733341675846</v>
+      </c>
+      <c r="C227" t="n" s="0">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B228" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.7))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.215013921774183</v>
+      </c>
+      <c r="C228" t="n" s="0">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n" s="0">
+        <v>0.71</v>
+      </c>
+      <c r="B229" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.71))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.222630005558029</v>
+      </c>
+      <c r="C229" t="n" s="0">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B230" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.72))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.2301809065079654</v>
+      </c>
+      <c r="C230" t="n" s="0">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n" s="0">
+        <v>0.73</v>
+      </c>
+      <c r="B231" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.73))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.23766586954019</v>
+      </c>
+      <c r="C231" t="n" s="0">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B232" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.74))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.245084146164637</v>
+      </c>
+      <c r="C232" t="n" s="0">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="B233" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.75))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.252434994559826</v>
+      </c>
+      <c r="C233" t="n" s="0">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B234" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.76))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.2597176796470433</v>
+      </c>
+      <c r="C234" t="n" s="0">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n" s="0">
+        <v>0.77</v>
+      </c>
+      <c r="B235" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.77))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.266931473163849</v>
+      </c>
+      <c r="C235" t="n" s="0">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B236" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.78))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.2740756537369022</v>
+      </c>
+      <c r="C236" t="n" s="0">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n" s="0">
+        <v>0.79</v>
+      </c>
+      <c r="B237" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.79))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.2811495069541</v>
+      </c>
+      <c r="C237" t="n" s="0">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B238" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.8))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.2881523254360148</v>
+      </c>
+      <c r="C238" t="n" s="0">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n" s="0">
+        <v>0.81</v>
+      </c>
+      <c r="B239" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.81))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.2950834089066348</v>
+      </c>
+      <c r="C239" t="n" s="0">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B240" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.82))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.301942064263388</v>
+      </c>
+      <c r="C240" t="n" s="0">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n" s="0">
+        <v>0.83</v>
+      </c>
+      <c r="B241" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.83))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.308727605646455</v>
+      </c>
+      <c r="C241" t="n" s="0">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B242" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.84))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.3154393545073515</v>
+      </c>
+      <c r="C242" t="n" s="0">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n" s="0">
+        <v>0.85</v>
+      </c>
+      <c r="B243" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.85))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.322076639676785</v>
+      </c>
+      <c r="C243" t="n" s="0">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B244" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.86))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.3286387974317693</v>
+      </c>
+      <c r="C244" t="n" s="0">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n" s="0">
+        <v>0.87</v>
+      </c>
+      <c r="B245" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.87))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.335125171561997</v>
+      </c>
+      <c r="C245" t="n" s="0">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B246" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.88))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.3415351134354614</v>
+      </c>
+      <c r="C246" t="n" s="0">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n" s="0">
+        <v>0.89</v>
+      </c>
+      <c r="B247" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.89))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.347867982063316</v>
+      </c>
+      <c r="C247" t="n" s="0">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B248" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.9))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.3541231441639754</v>
+      </c>
+      <c r="C248" t="n" s="0">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n" s="0">
+        <v>0.91</v>
+      </c>
+      <c r="B249" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.91))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.3602999742264426</v>
+      </c>
+      <c r="C249" t="n" s="0">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B250" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.92))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.3663978545728583</v>
+      </c>
+      <c r="C250" t="n" s="0">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n" s="0">
+        <v>0.93</v>
+      </c>
+      <c r="B251" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.93))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.3724161754202693</v>
+      </c>
+      <c r="C251" t="n" s="0">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B252" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.94))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.3783543349416063</v>
+      </c>
+      <c r="C252" t="n" s="0">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n" s="0">
+        <v>0.95</v>
+      </c>
+      <c r="B253" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.95))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.384211739325866</v>
+      </c>
+      <c r="C253" t="n" s="0">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B254" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.96))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.3899878028374903</v>
+      </c>
+      <c r="C254" t="n" s="0">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n" s="0">
+        <v>0.97</v>
+      </c>
+      <c r="B255" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.97))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.3956819478749423</v>
+      </c>
+      <c r="C255" t="n" s="0">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B256" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.98))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.401293605028463</v>
+      </c>
+      <c r="C256" t="n" s="0">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n" s="0">
+        <v>0.99</v>
+      </c>
+      <c r="B257" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(0.99))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.4068222131370125</v>
+      </c>
+      <c r="C257" t="n" s="0">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B258" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.412267219344389</v>
+      </c>
+      <c r="C258" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n" s="0">
+        <v>1.01</v>
+      </c>
+      <c r="B259" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.01))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.4176280791545075</v>
+      </c>
+      <c r="C259" t="n" s="0">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n" s="0">
+        <v>1.02</v>
+      </c>
+      <c r="B260" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.02))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.422904256485855</v>
+      </c>
+      <c r="C260" t="n" s="0">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n" s="0">
+        <v>1.03</v>
+      </c>
+      <c r="B261" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.03))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.4280952237250957</v>
+      </c>
+      <c r="C261" t="n" s="0">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n" s="0">
+        <v>1.04</v>
+      </c>
+      <c r="B262" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.04))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.4332004617798306</v>
+      </c>
+      <c r="C262" t="n" s="0">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n" s="0">
+        <v>1.05</v>
+      </c>
+      <c r="B263" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.05))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.438219460130509</v>
+      </c>
+      <c r="C263" t="n" s="0">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n" s="0">
+        <v>1.06</v>
+      </c>
+      <c r="B264" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.06))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.4431517168814785</v>
+      </c>
+      <c r="C264" t="n" s="0">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n" s="0">
+        <v>1.07</v>
+      </c>
+      <c r="B265" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.07))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.447996738811174</v>
+      </c>
+      <c r="C265" t="n" s="0">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n" s="0">
+        <v>1.08</v>
+      </c>
+      <c r="B266" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.08))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.4527540414214397</v>
+      </c>
+      <c r="C266" t="n" s="0">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n" s="0">
+        <v>1.09</v>
+      </c>
+      <c r="B267" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.09))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.4574231489859795</v>
+      </c>
+      <c r="C267" t="n" s="0">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="B268" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.1))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.4620035945979275</v>
+      </c>
+      <c r="C268" t="n" s="0">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n" s="0">
+        <v>1.11</v>
+      </c>
+      <c r="B269" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.11))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.46649492021654</v>
+      </c>
+      <c r="C269" t="n" s="0">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n" s="0">
+        <v>1.12</v>
+      </c>
+      <c r="B270" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.12))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.4708966767129974</v>
+      </c>
+      <c r="C270" t="n" s="0">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n" s="0">
+        <v>1.13</v>
+      </c>
+      <c r="B271" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.13))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.475208423915318</v>
+      </c>
+      <c r="C271" t="n" s="0">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n" s="0">
+        <v>1.14</v>
+      </c>
+      <c r="B272" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.14))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.479429730652375</v>
+      </c>
+      <c r="C272" t="n" s="0">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n" s="0">
+        <v>1.15</v>
+      </c>
+      <c r="B273" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.15))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.483560174797013</v>
+      </c>
+      <c r="C273" t="n" s="0">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n" s="0">
+        <v>1.16</v>
+      </c>
+      <c r="B274" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.16))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.487599343308259</v>
+      </c>
+      <c r="C274" t="n" s="0">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n" s="0">
+        <v>1.17</v>
+      </c>
+      <c r="B275" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.17))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.4915468322726277</v>
+      </c>
+      <c r="C275" t="n" s="0">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n" s="0">
+        <v>1.18</v>
+      </c>
+      <c r="B276" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.18))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.4954022469445123</v>
+      </c>
+      <c r="C276" t="n" s="0">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n" s="0">
+        <v>1.19</v>
+      </c>
+      <c r="B277" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.19))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.499165201785659</v>
+      </c>
+      <c r="C277" t="n" s="0">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n" s="0">
+        <v>1.2</v>
+      </c>
+      <c r="B278" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.2))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5028353205037184</v>
+      </c>
+      <c r="C278" t="n" s="0">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n" s="0">
+        <v>1.21</v>
+      </c>
+      <c r="B279" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.21))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.506412236089878</v>
+      </c>
+      <c r="C279" t="n" s="0">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n" s="0">
+        <v>1.22</v>
+      </c>
+      <c r="B280" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.22))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.50989559085556</v>
+      </c>
+      <c r="C280" t="n" s="0">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n" s="0">
+        <v>1.23</v>
+      </c>
+      <c r="B281" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.23))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5132850364681896</v>
+      </c>
+      <c r="C281" t="n" s="0">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n" s="0">
+        <v>1.24</v>
+      </c>
+      <c r="B282" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.24))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.516580233986031</v>
+      </c>
+      <c r="C282" t="n" s="0">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n" s="0">
+        <v>1.25</v>
+      </c>
+      <c r="B283" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.25))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5197808538920783</v>
+      </c>
+      <c r="C283" t="n" s="0">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n" s="0">
+        <v>1.26</v>
+      </c>
+      <c r="B284" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.26))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.522886576127008</v>
+      </c>
+      <c r="C284" t="n" s="0">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n" s="0">
+        <v>1.27</v>
+      </c>
+      <c r="B285" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.27))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5258970901211844</v>
+      </c>
+      <c r="C285" t="n" s="0">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n" s="0">
+        <v>1.28</v>
+      </c>
+      <c r="B286" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.28))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.528812094825717</v>
+      </c>
+      <c r="C286" t="n" s="0">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n" s="0">
+        <v>1.29</v>
+      </c>
+      <c r="B287" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.29))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.531631298742565</v>
+      </c>
+      <c r="C287" t="n" s="0">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n" s="0">
+        <v>1.3</v>
+      </c>
+      <c r="B288" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.3))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.534354419953685</v>
+      </c>
+      <c r="C288" t="n" s="0">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n" s="0">
+        <v>1.31</v>
+      </c>
+      <c r="B289" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.31))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.536981186149226</v>
+      </c>
+      <c r="C289" t="n" s="0">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n" s="0">
+        <v>1.32</v>
+      </c>
+      <c r="B290" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.32))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5395113346547573</v>
+      </c>
+      <c r="C290" t="n" s="0">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n" s="0">
+        <v>1.33</v>
+      </c>
+      <c r="B291" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.33))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5419446124575367</v>
+      </c>
+      <c r="C291" t="n" s="0">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n" s="0">
+        <v>1.34</v>
+      </c>
+      <c r="B292" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.34))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5442807762318114</v>
+      </c>
+      <c r="C292" t="n" s="0">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n" s="0">
+        <v>1.35</v>
+      </c>
+      <c r="B293" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.35))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5465195923631514</v>
+      </c>
+      <c r="C293" t="n" s="0">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n" s="0">
+        <v>1.36</v>
+      </c>
+      <c r="B294" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.36))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5486608369718082</v>
+      </c>
+      <c r="C294" t="n" s="0">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n" s="0">
+        <v>1.37</v>
+      </c>
+      <c r="B295" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.37))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5507042959351063</v>
+      </c>
+      <c r="C295" t="n" s="0">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n" s="0">
+        <v>1.38</v>
+      </c>
+      <c r="B296" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.38))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5526497649088515</v>
+      </c>
+      <c r="C296" t="n" s="0">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n" s="0">
+        <v>1.39</v>
+      </c>
+      <c r="B297" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.39))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5544970493477686</v>
+      </c>
+      <c r="C297" t="n" s="0">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n" s="0">
+        <v>1.4</v>
+      </c>
+      <c r="B298" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.4))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.556245964524952</v>
+      </c>
+      <c r="C298" t="n" s="0">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n" s="0">
+        <v>1.41</v>
+      </c>
+      <c r="B299" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.41))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5578963355503426</v>
+      </c>
+      <c r="C299" t="n" s="0">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n" s="0">
+        <v>1.42</v>
+      </c>
+      <c r="B300" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.42))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5594479973882116</v>
+      </c>
+      <c r="C300" t="n" s="0">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n" s="0">
+        <v>1.43</v>
+      </c>
+      <c r="B301" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.43))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5609007948736697</v>
+      </c>
+      <c r="C301" t="n" s="0">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n" s="0">
+        <v>1.44</v>
+      </c>
+      <c r="B302" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.44))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5622545827281784</v>
+      </c>
+      <c r="C302" t="n" s="0">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n" s="0">
+        <v>1.45</v>
+      </c>
+      <c r="B303" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.45))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5635092255740806</v>
+      </c>
+      <c r="C303" t="n" s="0">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n" s="0">
+        <v>1.46</v>
+      </c>
+      <c r="B304" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.46))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.564664597948137</v>
+      </c>
+      <c r="C304" t="n" s="0">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n" s="0">
+        <v>1.47</v>
+      </c>
+      <c r="B305" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.47))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.565720584314073</v>
+      </c>
+      <c r="C305" t="n" s="0">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n" s="0">
+        <v>1.48</v>
+      </c>
+      <c r="B306" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.48))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.566677079074132</v>
+      </c>
+      <c r="C306" t="n" s="0">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n" s="0">
+        <v>1.49</v>
+      </c>
+      <c r="B307" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.49))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5675339865796354</v>
+      </c>
+      <c r="C307" t="n" s="0">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="B308" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.5))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5682912211405466</v>
+      </c>
+      <c r="C308" t="n" s="0">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n" s="0">
+        <v>1.51</v>
+      </c>
+      <c r="B309" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.51))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.56894870703404</v>
+      </c>
+      <c r="C309" t="n" s="0">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n" s="0">
+        <v>1.52</v>
+      </c>
+      <c r="B310" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.52))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.569506378512075</v>
+      </c>
+      <c r="C310" t="n" s="0">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n" s="0">
+        <v>1.53</v>
+      </c>
+      <c r="B311" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.53))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.569964179807968</v>
+      </c>
+      <c r="C311" t="n" s="0">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n" s="0">
+        <v>1.54</v>
+      </c>
+      <c r="B312" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.54))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.570322065141971</v>
+      </c>
+      <c r="C312" t="n" s="0">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n" s="0">
+        <v>1.55</v>
+      </c>
+      <c r="B313" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.55))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.570579998725849</v>
+      </c>
+      <c r="C313" t="n" s="0">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n" s="0">
+        <v>1.56</v>
+      </c>
+      <c r="B314" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.56))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.570737954766458</v>
+      </c>
+      <c r="C314" t="n" s="0">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n" s="0">
+        <v>1.57</v>
+      </c>
+      <c r="B315" t="n" s="0">
+        <f>(COS(COS((COS(5.91479906553896)+-4.12230763429351)))+(((-45.5027533268601/-41.9376187957752)+SIN(1.57))+(COS(-25.6342028376366)+SIN((SIN((SIN((-45.5027533268601+(37.9827908201316+-38.1255508021896)))-(COS(-52.0253361406824)*(-20.9633425899746/(-55.9668458572871-((-85.2044324808058*89.9034303377535)-((54.9306561068356/18.2282316372926)--29.4577749693414)))))))--55.4473952188946)))))</f>
+        <v>2.5707959174683266</v>
+      </c>
+      <c r="C315" t="n" s="0">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>
